--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="15" iterateDelta="0.01"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="188">
   <si>
     <t>Activity</t>
   </si>
@@ -290,9 +290,6 @@
     <t>transport, freight, lorry &gt;32 metric ton, EURO5</t>
   </si>
   <si>
-    <t>metalliferous hydroxide sludge</t>
-  </si>
-  <si>
     <t>market for water, deionised</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>hydrogen, hydrogenated</t>
   </si>
   <si>
-    <t>Dibenzyltoluene</t>
-  </si>
-  <si>
     <t>LCI of hydrogenation for 1 kg hydrogen (Adametz, 2016; Adametz et al., 2015; Teichmann, 2015). Inccurs a 1% hydrogen loss that should be considered somehwere.</t>
   </si>
   <si>
@@ -504,9 +498,6 @@
   </si>
   <si>
     <t>chlorine, liquid</t>
-  </si>
-  <si>
-    <t>market for electricity, low voltage</t>
   </si>
   <si>
     <t>solution mining</t>
@@ -547,9 +538,6 @@
 Pages 12095-12107, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2020.02.121.</t>
   </si>
   <si>
-    <t>Oxygen</t>
-  </si>
-  <si>
     <t>LCI of 1 km distribution and transmission pipeline adapted from (Faist Emmenegger et al., 2007a, b; Krieg, 2012). Includes electricity for recompression every 250 km.</t>
   </si>
   <si>
@@ -596,6 +584,12 @@
   </si>
   <si>
     <t>LCI of the process of applying 1 kg of zinc coating (Faist Emmenegger et al., 2007a, b; Krieg, 2012)</t>
+  </si>
+  <si>
+    <t>electric arc furnace dust</t>
+  </si>
+  <si>
+    <t>Zinc, ion</t>
   </si>
 </sst>
 </file>
@@ -959,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="J222" sqref="J222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1010,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1081,7 +1075,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1099,7 +1093,7 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1405,7 +1399,7 @@
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27">
         <v>250</v>
@@ -1423,7 +1417,7 @@
         <v>23</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1431,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1455,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1526,7 +1520,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1544,7 +1538,7 @@
         <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1759,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1783,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1807,7 +1801,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1848,7 +1842,7 @@
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1866,7 +1860,7 @@
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2177,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2201,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2225,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2266,7 +2260,7 @@
     </row>
     <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2284,7 +2278,7 @@
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2361,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="B89">
-        <v>21.8</v>
+        <v>21800</v>
       </c>
       <c r="C89" t="s">
         <v>21</v>
@@ -2430,7 +2424,7 @@
         <v>77</v>
       </c>
       <c r="B92">
-        <v>21.8</v>
+        <v>21800</v>
       </c>
       <c r="C92" t="s">
         <v>21</v>
@@ -2643,7 +2637,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -2710,7 +2704,7 @@
     </row>
     <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B111">
         <v>-1.4E-5</v>
@@ -2728,12 +2722,12 @@
         <v>23</v>
       </c>
       <c r="H111" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B112">
         <v>-1.6000000000000001E-4</v>
@@ -2751,12 +2745,12 @@
         <v>23</v>
       </c>
       <c r="H112" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B113">
         <v>-9.0600000000000007E-5</v>
@@ -2774,12 +2768,12 @@
         <v>23</v>
       </c>
       <c r="H113" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B114">
         <v>0.2</v>
@@ -2797,12 +2791,12 @@
         <v>23</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B115">
         <v>1.5E-3</v>
@@ -2820,12 +2814,12 @@
         <v>23</v>
       </c>
       <c r="H115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B116" s="11">
         <v>9.0599999999999999E-7</v>
@@ -2843,12 +2837,12 @@
         <v>23</v>
       </c>
       <c r="H116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B117">
         <v>3.5999999999999994E-5</v>
@@ -2866,12 +2860,12 @@
         <v>23</v>
       </c>
       <c r="H117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B118">
         <v>0.76800000000000002</v>
@@ -2883,18 +2877,18 @@
         <v>83</v>
       </c>
       <c r="F118" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" t="s">
         <v>98</v>
-      </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
-      <c r="H118" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B119">
         <v>2.01E-2</v>
@@ -2906,18 +2900,18 @@
         <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G119" t="s">
         <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120">
         <v>2.2200000000000001E-2</v>
@@ -2935,12 +2929,12 @@
         <v>23</v>
       </c>
       <c r="H120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B121">
         <v>0.76800000000000002</v>
@@ -2952,18 +2946,18 @@
         <v>83</v>
       </c>
       <c r="F121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G121" t="s">
         <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B122" s="11">
         <v>1.6300000000000001E-13</v>
@@ -2981,12 +2975,12 @@
         <v>23</v>
       </c>
       <c r="H122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3004,12 +2998,12 @@
         <v>23</v>
       </c>
       <c r="H123" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B124">
         <v>3.8000000000000002E-4</v>
@@ -3027,7 +3021,7 @@
         <v>23</v>
       </c>
       <c r="H124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3078,442 +3072,442 @@
     </row>
     <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B127">
         <v>4.3600000000000003E-5</v>
       </c>
       <c r="C127" t="s">
+        <v>112</v>
+      </c>
+      <c r="E127" t="s">
         <v>113</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s">
         <v>114</v>
-      </c>
-      <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B128">
         <v>1.9000000000000002E-10</v>
       </c>
       <c r="C128" t="s">
+        <v>112</v>
+      </c>
+      <c r="E128" t="s">
         <v>113</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
         <v>114</v>
-      </c>
-      <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B129">
         <v>1.3200000000000001E-5</v>
       </c>
       <c r="C129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E129" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F129" t="s">
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B130" s="11">
         <v>1.31E-9</v>
       </c>
       <c r="C130" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" t="s">
         <v>113</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
         <v>114</v>
-      </c>
-      <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B131">
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="C131" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E131" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F131" t="s">
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B132">
         <v>1.88E-6</v>
       </c>
       <c r="C132" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E132" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F132" t="s">
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B133" s="11">
         <v>7.6000000000000002E-9</v>
       </c>
       <c r="C133" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E133" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F133" t="s">
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B134">
         <v>1.5699999999999999E-4</v>
       </c>
       <c r="C134" t="s">
+        <v>112</v>
+      </c>
+      <c r="E134" t="s">
         <v>113</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
         <v>114</v>
-      </c>
-      <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B135">
         <v>7.62E-3</v>
       </c>
       <c r="C135" t="s">
+        <v>112</v>
+      </c>
+      <c r="E135" t="s">
         <v>113</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" t="s">
         <v>114</v>
-      </c>
-      <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B136" s="11">
         <v>1.1900000000000001E-7</v>
       </c>
       <c r="C136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F136" t="s">
         <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B137">
         <v>1.8300000000000001E-5</v>
       </c>
       <c r="C137" t="s">
+        <v>112</v>
+      </c>
+      <c r="E137" t="s">
         <v>113</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" t="s">
         <v>114</v>
-      </c>
-      <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B138">
         <v>1.3999999999999999E-6</v>
       </c>
       <c r="C138" t="s">
+        <v>112</v>
+      </c>
+      <c r="E138" t="s">
         <v>113</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
         <v>114</v>
-      </c>
-      <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B139">
         <v>5.6499999999999993E-6</v>
       </c>
       <c r="C139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F139" t="s">
         <v>22</v>
       </c>
       <c r="G139" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B140" s="11">
         <v>3.4000000000000003E-9</v>
       </c>
       <c r="C140" t="s">
+        <v>112</v>
+      </c>
+      <c r="E140" t="s">
         <v>113</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
         <v>114</v>
-      </c>
-      <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B141" s="11">
         <v>1.51E-9</v>
       </c>
       <c r="C141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E141" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F141" t="s">
         <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B142" s="11">
         <v>9.9999999999999986E-10</v>
       </c>
       <c r="C142" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E142" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F142" t="s">
         <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B143" s="11">
         <v>1.0399999999999999E-7</v>
       </c>
       <c r="C143" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F143" t="s">
         <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B144" s="11">
         <v>9.0000000000000012E-8</v>
       </c>
       <c r="C144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E144" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F144" t="s">
         <v>22</v>
       </c>
       <c r="G144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B145" s="11">
         <v>2.2399999999999999E-7</v>
       </c>
       <c r="C145" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E145" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F145" t="s">
         <v>22</v>
       </c>
       <c r="G145" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B146" s="11">
         <v>2.9700000000000003E-7</v>
       </c>
       <c r="C146" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F146" t="s">
         <v>22</v>
       </c>
       <c r="G146" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B147" s="11">
         <v>2.7500000000000001E-5</v>
       </c>
       <c r="C147" t="s">
+        <v>112</v>
+      </c>
+      <c r="E147" t="s">
         <v>113</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
         <v>114</v>
-      </c>
-      <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="B148" s="11">
         <v>1.9E-6</v>
       </c>
       <c r="C148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F148" t="s">
         <v>22</v>
       </c>
       <c r="G148" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3521,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -3545,7 +3539,7 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -3569,7 +3563,7 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -3613,7 +3607,7 @@
     </row>
     <row r="160" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -3631,12 +3625,12 @@
         <v>19</v>
       </c>
       <c r="H160" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B161" s="11">
         <v>1.61E-7</v>
@@ -3654,12 +3648,12 @@
         <v>23</v>
       </c>
       <c r="H161" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B162" s="11">
         <v>3.1999999999999999E-5</v>
@@ -3668,7 +3662,7 @@
         <v>21</v>
       </c>
       <c r="D162" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F162" t="s">
         <v>22</v>
@@ -3677,12 +3671,12 @@
         <v>23</v>
       </c>
       <c r="H162" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B163" s="11">
         <v>3.2000000000000003E-4</v>
@@ -3700,12 +3694,12 @@
         <v>23</v>
       </c>
       <c r="H163" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B164" s="11">
         <v>0.16600000000000001</v>
@@ -3721,6 +3715,9 @@
       </c>
       <c r="G164" t="s">
         <v>23</v>
+      </c>
+      <c r="H164" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -3751,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -3775,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -3799,7 +3796,7 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -3843,7 +3840,7 @@
     </row>
     <row r="177" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -3861,12 +3858,12 @@
         <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B178" s="11">
         <v>1.61E-7</v>
@@ -3884,12 +3881,12 @@
         <v>23</v>
       </c>
       <c r="H178" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B179" s="11">
         <v>3.1999999999999999E-5</v>
@@ -3898,7 +3895,7 @@
         <v>21</v>
       </c>
       <c r="D179" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F179" t="s">
         <v>22</v>
@@ -3907,12 +3904,12 @@
         <v>23</v>
       </c>
       <c r="H179" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B180" s="11">
         <v>3.2000000000000003E-4</v>
@@ -3930,12 +3927,12 @@
         <v>23</v>
       </c>
       <c r="H180" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B181" s="11">
         <v>0.16600000000000001</v>
@@ -3953,7 +3950,7 @@
         <v>23</v>
       </c>
       <c r="H181" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -3981,7 +3978,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B183">
         <f>9.5*3.6</f>
@@ -3994,13 +3991,13 @@
         <v>42</v>
       </c>
       <c r="F183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G183" t="s">
         <v>23</v>
       </c>
       <c r="H183" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4008,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -4032,7 +4029,7 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -4056,7 +4053,7 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -4100,7 +4097,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B195" s="13">
         <v>1</v>
@@ -4118,12 +4115,12 @@
         <v>19</v>
       </c>
       <c r="H195" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B196">
         <v>1.2</v>
@@ -4141,12 +4138,12 @@
         <v>23</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B197">
         <v>1.03</v>
@@ -4155,7 +4152,7 @@
         <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F197" t="s">
         <v>22</v>
@@ -4164,12 +4161,12 @@
         <v>23</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B198">
         <v>0.26</v>
@@ -4178,7 +4175,7 @@
         <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
         <v>22</v>
@@ -4187,12 +4184,12 @@
         <v>23</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B199" s="11">
         <v>1.9999999999999999E-6</v>
@@ -4210,12 +4207,12 @@
         <v>23</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="B200">
         <v>42.1</v>
@@ -4238,7 +4235,7 @@
     </row>
     <row r="201" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B201">
         <v>2.7</v>
@@ -4250,13 +4247,13 @@
         <v>42</v>
       </c>
       <c r="F201" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G201" t="s">
         <v>23</v>
       </c>
       <c r="H201" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -4287,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -4311,7 +4308,7 @@
         <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -4335,7 +4332,7 @@
         <v>10</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -4379,7 +4376,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B214" s="13">
         <v>1</v>
@@ -4397,7 +4394,7 @@
         <v>19</v>
       </c>
       <c r="H214" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -4425,7 +4422,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B216">
         <v>31.25</v>
@@ -4443,7 +4440,7 @@
         <v>23</v>
       </c>
       <c r="H216" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4451,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -4475,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -4499,7 +4496,7 @@
         <v>10</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -4543,7 +4540,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B228" s="13">
         <v>1</v>
@@ -4561,7 +4558,7 @@
         <v>19</v>
       </c>
       <c r="H228" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -4592,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -4616,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -4640,7 +4637,7 @@
         <v>10</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -4648,7 +4645,7 @@
         <v>8</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4684,7 +4681,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -4702,7 +4699,7 @@
         <v>19</v>
       </c>
       <c r="H241" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -4730,7 +4727,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B243">
         <v>2.3999999999999998E-3</v>
@@ -4748,314 +4745,289 @@
         <v>23</v>
       </c>
       <c r="H243" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B244">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="C244" t="s">
-        <v>113</v>
-      </c>
-      <c r="E244" t="s">
-        <v>114</v>
-      </c>
-      <c r="F244" t="s">
-        <v>22</v>
-      </c>
-      <c r="G244" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+    </row>
+    <row r="245" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>180</v>
+      <c r="B245" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>1</v>
-      </c>
-      <c r="B247" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>3</v>
-      </c>
-      <c r="B248">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B248" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B249" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B251" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B252" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>8</v>
-      </c>
-      <c r="B253" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+    <row r="253" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>13</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B254" t="s">
         <v>14</v>
       </c>
+      <c r="C254" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1</v>
+      </c>
+      <c r="E254" t="s">
+        <v>7</v>
+      </c>
+      <c r="F254" t="s">
+        <v>5</v>
+      </c>
+      <c r="G254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A255" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
       <c r="C255" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D255" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="F255" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G255" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A256" s="4" t="s">
-        <v>180</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B256">
-        <v>1</v>
-      </c>
-      <c r="C256" t="s">
-        <v>67</v>
-      </c>
-      <c r="D256" t="s">
-        <v>42</v>
-      </c>
-      <c r="E256" t="s">
-        <v>66</v>
-      </c>
-      <c r="F256" t="s">
-        <v>19</v>
-      </c>
-      <c r="G256" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A257" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B257">
         <f>0.6/250</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C257" t="s">
-        <v>21</v>
-      </c>
-      <c r="D257" t="s">
-        <v>42</v>
-      </c>
-      <c r="E257" t="s">
+      <c r="C256" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" t="s">
+        <v>42</v>
+      </c>
+      <c r="E256" t="s">
         <v>61</v>
       </c>
-      <c r="F257" t="s">
-        <v>61</v>
-      </c>
-      <c r="G257" t="s">
-        <v>23</v>
-      </c>
-      <c r="H257" t="s">
+      <c r="F256" t="s">
+        <v>23</v>
+      </c>
+      <c r="G256" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+    <row r="258" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B258" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>1</v>
-      </c>
-      <c r="B260" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>3</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B261" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" t="s">
+        <v>15</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1</v>
+      </c>
+      <c r="E267" t="s">
+        <v>7</v>
+      </c>
+      <c r="F267" t="s">
+        <v>5</v>
+      </c>
+      <c r="G267" t="s">
         <v>4</v>
       </c>
-      <c r="B262" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>5</v>
-      </c>
-      <c r="B263" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>7</v>
-      </c>
-      <c r="B264" t="s">
+    </row>
+    <row r="268" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>67</v>
+      </c>
+      <c r="D268" t="s">
+        <v>42</v>
+      </c>
+      <c r="E268" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>10</v>
-      </c>
-      <c r="B265" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>8</v>
-      </c>
-      <c r="B266" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>13</v>
-      </c>
-      <c r="B268" t="s">
-        <v>14</v>
-      </c>
-      <c r="C268" t="s">
-        <v>15</v>
-      </c>
-      <c r="D268" t="s">
-        <v>1</v>
-      </c>
-      <c r="E268" t="s">
-        <v>7</v>
-      </c>
       <c r="F268" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G268" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A269" s="4" t="s">
-        <v>182</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B269">
-        <v>1</v>
-      </c>
-      <c r="C269" t="s">
-        <v>67</v>
-      </c>
-      <c r="D269" t="s">
-        <v>42</v>
-      </c>
-      <c r="E269" t="s">
-        <v>66</v>
-      </c>
-      <c r="F269" t="s">
-        <v>19</v>
-      </c>
-      <c r="G269" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A270" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B270">
         <f>0.6/250</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C270" t="s">
-        <v>21</v>
-      </c>
-      <c r="D270" t="s">
-        <v>42</v>
-      </c>
-      <c r="E270" t="s">
+      <c r="C269" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" t="s">
+        <v>42</v>
+      </c>
+      <c r="E269" t="s">
         <v>61</v>
       </c>
-      <c r="F270" t="s">
-        <v>61</v>
-      </c>
-      <c r="G270" t="s">
-        <v>23</v>
-      </c>
-      <c r="H270" t="s">
+      <c r="F269" t="s">
+        <v>23</v>
+      </c>
+      <c r="G269" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="189">
   <si>
     <t>Activity</t>
   </si>
@@ -282,12 +282,6 @@
   </si>
   <si>
     <t>transport, freight train</t>
-  </si>
-  <si>
-    <t>market for transport, freight, lorry &gt;32 metric ton, EURO5</t>
-  </si>
-  <si>
-    <t>transport, freight, lorry &gt;32 metric ton, EURO5</t>
   </si>
   <si>
     <t>market for water, deionised</t>
@@ -590,6 +584,15 @@
   </si>
   <si>
     <t>Zinc, ion</t>
+  </si>
+  <si>
+    <t>Hydrogen refuelling station</t>
+  </si>
+  <si>
+    <t>market for transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry, unspecified</t>
   </si>
 </sst>
 </file>
@@ -955,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="J222" sqref="J222"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1004,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1075,7 +1078,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1093,7 +1096,7 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1399,7 +1402,7 @@
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B27">
         <v>250</v>
@@ -1417,7 +1420,7 @@
         <v>23</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1425,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1449,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1520,7 +1523,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1538,7 +1541,7 @@
         <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1753,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1777,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1801,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1842,7 +1845,7 @@
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1860,7 +1863,7 @@
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2118,7 +2121,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="B72">
         <v>6580</v>
@@ -2136,7 +2139,7 @@
         <v>23</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2171,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2195,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2219,7 +2222,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2260,7 +2263,7 @@
     </row>
     <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2278,7 +2281,7 @@
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2536,7 +2539,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="B97">
         <v>4390</v>
@@ -2554,7 +2557,7 @@
         <v>23</v>
       </c>
       <c r="G97" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -2637,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -2704,7 +2707,7 @@
     </row>
     <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B111">
         <v>-1.4E-5</v>
@@ -2722,12 +2725,12 @@
         <v>23</v>
       </c>
       <c r="H111" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B112">
         <v>-1.6000000000000001E-4</v>
@@ -2745,12 +2748,12 @@
         <v>23</v>
       </c>
       <c r="H112" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B113">
         <v>-9.0600000000000007E-5</v>
@@ -2768,12 +2771,12 @@
         <v>23</v>
       </c>
       <c r="H113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B114">
         <v>0.2</v>
@@ -2791,12 +2794,12 @@
         <v>23</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B115">
         <v>1.5E-3</v>
@@ -2814,12 +2817,12 @@
         <v>23</v>
       </c>
       <c r="H115" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B116" s="11">
         <v>9.0599999999999999E-7</v>
@@ -2837,12 +2840,12 @@
         <v>23</v>
       </c>
       <c r="H116" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B117">
         <v>3.5999999999999994E-5</v>
@@ -2860,12 +2863,12 @@
         <v>23</v>
       </c>
       <c r="H117" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B118">
         <v>0.76800000000000002</v>
@@ -2877,18 +2880,18 @@
         <v>83</v>
       </c>
       <c r="F118" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G118" t="s">
         <v>23</v>
       </c>
       <c r="H118" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B119">
         <v>2.01E-2</v>
@@ -2900,18 +2903,18 @@
         <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G119" t="s">
         <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B120">
         <v>2.2200000000000001E-2</v>
@@ -2929,12 +2932,12 @@
         <v>23</v>
       </c>
       <c r="H120" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B121">
         <v>0.76800000000000002</v>
@@ -2946,18 +2949,18 @@
         <v>83</v>
       </c>
       <c r="F121" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G121" t="s">
         <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B122" s="11">
         <v>1.6300000000000001E-13</v>
@@ -2975,12 +2978,12 @@
         <v>23</v>
       </c>
       <c r="H122" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -2998,12 +3001,12 @@
         <v>23</v>
       </c>
       <c r="H123" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B124">
         <v>3.8000000000000002E-4</v>
@@ -3021,12 +3024,12 @@
         <v>23</v>
       </c>
       <c r="H124" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="B125">
         <v>8.0399999999999985E-3</v>
@@ -3044,7 +3047,7 @@
         <v>23</v>
       </c>
       <c r="H125" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3072,442 +3075,442 @@
     </row>
     <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B127">
         <v>4.3600000000000003E-5</v>
       </c>
       <c r="C127" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" t="s">
+        <v>111</v>
+      </c>
+      <c r="F127" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s">
         <v>112</v>
-      </c>
-      <c r="E127" t="s">
-        <v>113</v>
-      </c>
-      <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B128">
         <v>1.9000000000000002E-10</v>
       </c>
       <c r="C128" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" t="s">
+        <v>111</v>
+      </c>
+      <c r="F128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
         <v>112</v>
-      </c>
-      <c r="E128" t="s">
-        <v>113</v>
-      </c>
-      <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B129">
         <v>1.3200000000000001E-5</v>
       </c>
       <c r="C129" t="s">
+        <v>110</v>
+      </c>
+      <c r="E129" t="s">
+        <v>115</v>
+      </c>
+      <c r="F129" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
         <v>112</v>
-      </c>
-      <c r="E129" t="s">
-        <v>117</v>
-      </c>
-      <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B130" s="11">
         <v>1.31E-9</v>
       </c>
       <c r="C130" t="s">
+        <v>110</v>
+      </c>
+      <c r="E130" t="s">
+        <v>111</v>
+      </c>
+      <c r="F130" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
         <v>112</v>
-      </c>
-      <c r="E130" t="s">
-        <v>113</v>
-      </c>
-      <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B131">
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="C131" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131" t="s">
+        <v>115</v>
+      </c>
+      <c r="F131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
         <v>112</v>
-      </c>
-      <c r="E131" t="s">
-        <v>117</v>
-      </c>
-      <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B132">
         <v>1.88E-6</v>
       </c>
       <c r="C132" t="s">
+        <v>110</v>
+      </c>
+      <c r="E132" t="s">
+        <v>115</v>
+      </c>
+      <c r="F132" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
         <v>112</v>
-      </c>
-      <c r="E132" t="s">
-        <v>117</v>
-      </c>
-      <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B133" s="11">
         <v>7.6000000000000002E-9</v>
       </c>
       <c r="C133" t="s">
+        <v>110</v>
+      </c>
+      <c r="E133" t="s">
+        <v>115</v>
+      </c>
+      <c r="F133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
         <v>112</v>
-      </c>
-      <c r="E133" t="s">
-        <v>117</v>
-      </c>
-      <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B134">
         <v>1.5699999999999999E-4</v>
       </c>
       <c r="C134" t="s">
+        <v>110</v>
+      </c>
+      <c r="E134" t="s">
+        <v>111</v>
+      </c>
+      <c r="F134" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
         <v>112</v>
-      </c>
-      <c r="E134" t="s">
-        <v>113</v>
-      </c>
-      <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B135">
         <v>7.62E-3</v>
       </c>
       <c r="C135" t="s">
+        <v>110</v>
+      </c>
+      <c r="E135" t="s">
+        <v>111</v>
+      </c>
+      <c r="F135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" t="s">
         <v>112</v>
-      </c>
-      <c r="E135" t="s">
-        <v>113</v>
-      </c>
-      <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B136" s="11">
         <v>1.1900000000000001E-7</v>
       </c>
       <c r="C136" t="s">
+        <v>110</v>
+      </c>
+      <c r="E136" t="s">
+        <v>115</v>
+      </c>
+      <c r="F136" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" t="s">
         <v>112</v>
-      </c>
-      <c r="E136" t="s">
-        <v>117</v>
-      </c>
-      <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B137">
         <v>1.8300000000000001E-5</v>
       </c>
       <c r="C137" t="s">
+        <v>110</v>
+      </c>
+      <c r="E137" t="s">
+        <v>111</v>
+      </c>
+      <c r="F137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" t="s">
         <v>112</v>
-      </c>
-      <c r="E137" t="s">
-        <v>113</v>
-      </c>
-      <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B138">
         <v>1.3999999999999999E-6</v>
       </c>
       <c r="C138" t="s">
+        <v>110</v>
+      </c>
+      <c r="E138" t="s">
+        <v>111</v>
+      </c>
+      <c r="F138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
         <v>112</v>
-      </c>
-      <c r="E138" t="s">
-        <v>113</v>
-      </c>
-      <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B139">
         <v>5.6499999999999993E-6</v>
       </c>
       <c r="C139" t="s">
+        <v>110</v>
+      </c>
+      <c r="E139" t="s">
+        <v>115</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
         <v>112</v>
-      </c>
-      <c r="E139" t="s">
-        <v>117</v>
-      </c>
-      <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B140" s="11">
         <v>3.4000000000000003E-9</v>
       </c>
       <c r="C140" t="s">
+        <v>110</v>
+      </c>
+      <c r="E140" t="s">
+        <v>111</v>
+      </c>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
         <v>112</v>
-      </c>
-      <c r="E140" t="s">
-        <v>113</v>
-      </c>
-      <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B141" s="11">
         <v>1.51E-9</v>
       </c>
       <c r="C141" t="s">
+        <v>110</v>
+      </c>
+      <c r="E141" t="s">
+        <v>115</v>
+      </c>
+      <c r="F141" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" t="s">
         <v>112</v>
-      </c>
-      <c r="E141" t="s">
-        <v>117</v>
-      </c>
-      <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B142" s="11">
         <v>9.9999999999999986E-10</v>
       </c>
       <c r="C142" t="s">
+        <v>110</v>
+      </c>
+      <c r="E142" t="s">
+        <v>115</v>
+      </c>
+      <c r="F142" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s">
         <v>112</v>
-      </c>
-      <c r="E142" t="s">
-        <v>117</v>
-      </c>
-      <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B143" s="11">
         <v>1.0399999999999999E-7</v>
       </c>
       <c r="C143" t="s">
+        <v>110</v>
+      </c>
+      <c r="E143" t="s">
+        <v>115</v>
+      </c>
+      <c r="F143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" t="s">
         <v>112</v>
-      </c>
-      <c r="E143" t="s">
-        <v>117</v>
-      </c>
-      <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B144" s="11">
         <v>9.0000000000000012E-8</v>
       </c>
       <c r="C144" t="s">
+        <v>110</v>
+      </c>
+      <c r="E144" t="s">
+        <v>115</v>
+      </c>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
         <v>112</v>
-      </c>
-      <c r="E144" t="s">
-        <v>117</v>
-      </c>
-      <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B145" s="11">
         <v>2.2399999999999999E-7</v>
       </c>
       <c r="C145" t="s">
+        <v>110</v>
+      </c>
+      <c r="E145" t="s">
+        <v>115</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
         <v>112</v>
-      </c>
-      <c r="E145" t="s">
-        <v>117</v>
-      </c>
-      <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B146" s="11">
         <v>2.9700000000000003E-7</v>
       </c>
       <c r="C146" t="s">
+        <v>110</v>
+      </c>
+      <c r="E146" t="s">
+        <v>115</v>
+      </c>
+      <c r="F146" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s">
         <v>112</v>
-      </c>
-      <c r="E146" t="s">
-        <v>117</v>
-      </c>
-      <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B147" s="11">
         <v>2.7500000000000001E-5</v>
       </c>
       <c r="C147" t="s">
+        <v>110</v>
+      </c>
+      <c r="E147" t="s">
+        <v>111</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
         <v>112</v>
-      </c>
-      <c r="E147" t="s">
-        <v>113</v>
-      </c>
-      <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B148" s="11">
         <v>1.9E-6</v>
       </c>
       <c r="C148" t="s">
+        <v>110</v>
+      </c>
+      <c r="E148" t="s">
+        <v>115</v>
+      </c>
+      <c r="F148" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s">
         <v>112</v>
-      </c>
-      <c r="E148" t="s">
-        <v>117</v>
-      </c>
-      <c r="F148" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3515,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -3539,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -3563,7 +3566,7 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -3607,7 +3610,7 @@
     </row>
     <row r="160" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -3625,12 +3628,12 @@
         <v>19</v>
       </c>
       <c r="H160" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B161" s="11">
         <v>1.61E-7</v>
@@ -3648,12 +3651,12 @@
         <v>23</v>
       </c>
       <c r="H161" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B162" s="11">
         <v>3.1999999999999999E-5</v>
@@ -3662,7 +3665,7 @@
         <v>21</v>
       </c>
       <c r="D162" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F162" t="s">
         <v>22</v>
@@ -3671,12 +3674,12 @@
         <v>23</v>
       </c>
       <c r="H162" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B163" s="11">
         <v>3.2000000000000003E-4</v>
@@ -3694,12 +3697,12 @@
         <v>23</v>
       </c>
       <c r="H163" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B164" s="11">
         <v>0.16600000000000001</v>
@@ -3717,7 +3720,7 @@
         <v>23</v>
       </c>
       <c r="H164" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -3748,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -3772,7 +3775,7 @@
         <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -3796,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -3840,7 +3843,7 @@
     </row>
     <row r="177" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -3858,12 +3861,12 @@
         <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B178" s="11">
         <v>1.61E-7</v>
@@ -3881,12 +3884,12 @@
         <v>23</v>
       </c>
       <c r="H178" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B179" s="11">
         <v>3.1999999999999999E-5</v>
@@ -3895,7 +3898,7 @@
         <v>21</v>
       </c>
       <c r="D179" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F179" t="s">
         <v>22</v>
@@ -3904,12 +3907,12 @@
         <v>23</v>
       </c>
       <c r="H179" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B180" s="11">
         <v>3.2000000000000003E-4</v>
@@ -3927,12 +3930,12 @@
         <v>23</v>
       </c>
       <c r="H180" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B181" s="11">
         <v>0.16600000000000001</v>
@@ -3950,7 +3953,7 @@
         <v>23</v>
       </c>
       <c r="H181" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -3978,7 +3981,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B183">
         <f>9.5*3.6</f>
@@ -3991,13 +3994,13 @@
         <v>42</v>
       </c>
       <c r="F183" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G183" t="s">
         <v>23</v>
       </c>
       <c r="H183" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4005,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -4029,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -4053,7 +4056,7 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -4097,7 +4100,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B195" s="13">
         <v>1</v>
@@ -4115,12 +4118,12 @@
         <v>19</v>
       </c>
       <c r="H195" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B196">
         <v>1.2</v>
@@ -4138,12 +4141,12 @@
         <v>23</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B197">
         <v>1.03</v>
@@ -4161,12 +4164,12 @@
         <v>23</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B198">
         <v>0.26</v>
@@ -4184,12 +4187,12 @@
         <v>23</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B199" s="11">
         <v>1.9999999999999999E-6</v>
@@ -4207,7 +4210,7 @@
         <v>23</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -4235,7 +4238,7 @@
     </row>
     <row r="201" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B201">
         <v>2.7</v>
@@ -4247,18 +4250,18 @@
         <v>42</v>
       </c>
       <c r="F201" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G201" t="s">
         <v>23</v>
       </c>
       <c r="H201" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="B202">
         <v>0.2</v>
@@ -4276,7 +4279,7 @@
         <v>23</v>
       </c>
       <c r="H202" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4284,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -4308,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -4332,7 +4335,7 @@
         <v>10</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -4376,7 +4379,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B214" s="13">
         <v>1</v>
@@ -4394,7 +4397,7 @@
         <v>19</v>
       </c>
       <c r="H214" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -4422,7 +4425,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B216">
         <v>31.25</v>
@@ -4440,7 +4443,7 @@
         <v>23</v>
       </c>
       <c r="H216" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4448,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -4472,7 +4475,7 @@
         <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -4496,7 +4499,7 @@
         <v>10</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -4540,7 +4543,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B228" s="13">
         <v>1</v>
@@ -4558,7 +4561,7 @@
         <v>19</v>
       </c>
       <c r="H228" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -4589,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -4613,7 +4616,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -4637,7 +4640,7 @@
         <v>10</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -4645,7 +4648,7 @@
         <v>8</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4681,7 +4684,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -4699,7 +4702,7 @@
         <v>19</v>
       </c>
       <c r="H241" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -4727,7 +4730,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B243">
         <v>2.3999999999999998E-3</v>
@@ -4745,7 +4748,7 @@
         <v>23</v>
       </c>
       <c r="H243" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4753,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -4777,7 +4780,7 @@
         <v>4</v>
       </c>
       <c r="B248" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -4801,7 +4804,7 @@
         <v>10</v>
       </c>
       <c r="B251" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -4842,7 +4845,7 @@
     </row>
     <row r="255" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -4860,7 +4863,7 @@
         <v>19</v>
       </c>
       <c r="G255" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -4892,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -4916,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -4940,7 +4943,7 @@
         <v>10</v>
       </c>
       <c r="B264" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -4981,7 +4984,7 @@
     </row>
     <row r="268" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -4999,7 +5002,7 @@
         <v>19</v>
       </c>
       <c r="G268" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">

--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1643,8 +1643,8 @@
       <c r="B44" s="5">
         <v>7.1400000000000006</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>18</v>
+      <c r="C44" t="s">
+        <v>21</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>42</v>

--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -1,23 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57FA49-D23C-694E-8DCF-8D60EA2073A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$269</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -598,7 +612,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -955,22 +969,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -978,7 +992,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1000,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -994,7 +1008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1024,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -1034,7 +1048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -1042,12 +1056,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>186</v>
       </c>
@@ -1099,7 +1113,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1122,7 +1136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1145,7 +1159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1168,7 +1182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1191,7 +1205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +1228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1237,7 +1251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1260,7 +1274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1283,7 +1297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1306,7 +1320,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1329,7 +1343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1352,7 +1366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1376,7 +1390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1400,7 +1414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>134</v>
       </c>
@@ -1423,7 +1437,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1445,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -1439,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1469,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +1477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>7</v>
       </c>
@@ -1471,7 +1485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>8</v>
       </c>
@@ -1479,7 +1493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>10</v>
       </c>
@@ -1487,12 +1501,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>134</v>
       </c>
@@ -1544,7 +1558,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -1567,7 +1581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -1590,7 +1604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
@@ -1613,7 +1627,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1636,7 +1650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>56</v>
       </c>
@@ -1659,7 +1673,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -1682,7 +1696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -1705,7 +1719,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
@@ -1728,7 +1742,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -1751,7 +1765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1773,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1767,7 +1781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1775,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1783,7 +1797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1791,7 +1805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1807,7 +1821,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1815,12 +1829,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -1843,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>172</v>
       </c>
@@ -1866,7 +1880,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>37</v>
       </c>
@@ -1889,12 +1903,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62">
-        <v>2700</v>
+        <v>-2700</v>
       </c>
       <c r="C62" t="s">
         <v>21</v>
@@ -1912,7 +1926,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -1935,7 +1949,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
@@ -1958,7 +1972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -1981,7 +1995,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -2004,7 +2018,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -2027,7 +2041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -2050,7 +2064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -2073,7 +2087,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -2096,7 +2110,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -2119,7 +2133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -2142,7 +2156,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -2166,10 +2180,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2191,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -2185,7 +2199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2193,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2201,7 +2215,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2209,7 +2223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +2231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2225,7 +2239,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2233,12 +2247,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -2261,7 +2275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>173</v>
       </c>
@@ -2284,7 +2298,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
@@ -2307,12 +2321,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>68</v>
       </c>
       <c r="B87">
-        <v>10900</v>
+        <v>-10900</v>
       </c>
       <c r="C87" t="s">
         <v>21</v>
@@ -2330,7 +2344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>71</v>
       </c>
@@ -2353,7 +2367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>20</v>
       </c>
@@ -2376,7 +2390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>73</v>
       </c>
@@ -2399,7 +2413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>75</v>
       </c>
@@ -2422,7 +2436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -2445,7 +2459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -2468,7 +2482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>80</v>
       </c>
@@ -2491,7 +2505,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>81</v>
       </c>
@@ -2514,7 +2528,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>82</v>
       </c>
@@ -2537,7 +2551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>187</v>
       </c>
@@ -2560,7 +2574,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -2584,10 +2598,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +2609,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +2617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -2611,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2619,7 +2633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2627,7 +2641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2635,7 +2649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -2643,7 +2657,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2651,12 +2665,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -2682,7 +2696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>81</v>
       </c>
@@ -2705,7 +2719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>182</v>
       </c>
@@ -2728,7 +2742,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>178</v>
       </c>
@@ -2751,7 +2765,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>180</v>
       </c>
@@ -2774,7 +2788,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>86</v>
       </c>
@@ -2797,7 +2811,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>88</v>
       </c>
@@ -2820,7 +2834,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>90</v>
       </c>
@@ -2843,7 +2857,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>92</v>
       </c>
@@ -2866,7 +2880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>94</v>
       </c>
@@ -2889,7 +2903,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>97</v>
       </c>
@@ -2912,7 +2926,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>99</v>
       </c>
@@ -2935,7 +2949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>101</v>
       </c>
@@ -2958,7 +2972,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>103</v>
       </c>
@@ -2981,7 +2995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>105</v>
       </c>
@@ -3004,7 +3018,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>107</v>
       </c>
@@ -3027,7 +3041,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>187</v>
       </c>
@@ -3050,7 +3064,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>60</v>
       </c>
@@ -3073,7 +3087,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>109</v>
       </c>
@@ -3093,7 +3107,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>113</v>
       </c>
@@ -3113,7 +3127,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>114</v>
       </c>
@@ -3133,7 +3147,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>116</v>
       </c>
@@ -3153,7 +3167,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>117</v>
       </c>
@@ -3173,7 +3187,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>118</v>
       </c>
@@ -3193,7 +3207,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>119</v>
       </c>
@@ -3213,7 +3227,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>120</v>
       </c>
@@ -3233,7 +3247,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>121</v>
       </c>
@@ -3253,7 +3267,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>122</v>
       </c>
@@ -3273,7 +3287,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>123</v>
       </c>
@@ -3293,7 +3307,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>124</v>
       </c>
@@ -3313,7 +3327,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>124</v>
       </c>
@@ -3333,7 +3347,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>125</v>
       </c>
@@ -3353,7 +3367,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>125</v>
       </c>
@@ -3373,7 +3387,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>126</v>
       </c>
@@ -3393,7 +3407,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>127</v>
       </c>
@@ -3413,7 +3427,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>128</v>
       </c>
@@ -3433,7 +3447,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>129</v>
       </c>
@@ -3453,7 +3467,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>130</v>
       </c>
@@ -3473,7 +3487,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>131</v>
       </c>
@@ -3493,7 +3507,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>185</v>
       </c>
@@ -3513,7 +3527,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -3521,7 +3535,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -3529,7 +3543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3537,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3545,7 +3559,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -3553,7 +3567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3561,7 +3575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -3569,7 +3583,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -3577,12 +3591,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -3608,7 +3622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>136</v>
       </c>
@@ -3631,7 +3645,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>144</v>
       </c>
@@ -3654,7 +3668,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>141</v>
       </c>
@@ -3677,7 +3691,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>139</v>
       </c>
@@ -3700,7 +3714,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>148</v>
       </c>
@@ -3723,7 +3737,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>60</v>
       </c>
@@ -3746,7 +3760,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
@@ -3754,7 +3768,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -3762,7 +3776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>3</v>
       </c>
@@ -3770,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -3778,7 +3792,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -3786,7 +3800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -3794,7 +3808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -3802,7 +3816,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -3810,12 +3824,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -3841,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>146</v>
       </c>
@@ -3864,7 +3878,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>144</v>
       </c>
@@ -3887,7 +3901,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>141</v>
       </c>
@@ -3910,7 +3924,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>139</v>
       </c>
@@ -3933,7 +3947,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>148</v>
       </c>
@@ -3956,7 +3970,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>60</v>
       </c>
@@ -3979,7 +3993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>97</v>
       </c>
@@ -4003,7 +4017,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -4011,7 +4025,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -4019,7 +4033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -4027,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -4035,7 +4049,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -4043,7 +4057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -4051,7 +4065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -4059,7 +4073,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -4067,12 +4081,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -4098,7 +4112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>148</v>
       </c>
@@ -4121,7 +4135,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>150</v>
       </c>
@@ -4144,7 +4158,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>152</v>
       </c>
@@ -4167,7 +4181,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>154</v>
       </c>
@@ -4190,7 +4204,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>157</v>
       </c>
@@ -4213,7 +4227,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>60</v>
       </c>
@@ -4236,7 +4250,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>97</v>
       </c>
@@ -4259,7 +4273,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>187</v>
       </c>
@@ -4282,7 +4296,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>0</v>
       </c>
@@ -4290,7 +4304,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1</v>
       </c>
@@ -4298,7 +4312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>3</v>
       </c>
@@ -4306,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -4314,7 +4328,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -4322,7 +4336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -4330,7 +4344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -4338,7 +4352,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -4346,12 +4360,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -4377,7 +4391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>162</v>
       </c>
@@ -4400,7 +4414,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>60</v>
       </c>
@@ -4423,7 +4437,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>159</v>
       </c>
@@ -4446,7 +4460,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>0</v>
       </c>
@@ -4454,7 +4468,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -4462,7 +4476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>3</v>
       </c>
@@ -4470,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -4478,7 +4492,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4486,7 +4500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -4494,7 +4508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -4502,7 +4516,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -4510,12 +4524,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -4541,7 +4555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>163</v>
       </c>
@@ -4564,7 +4578,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>60</v>
       </c>
@@ -4587,7 +4601,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>0</v>
       </c>
@@ -4595,7 +4609,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1</v>
       </c>
@@ -4603,7 +4617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>3</v>
       </c>
@@ -4611,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -4619,7 +4633,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -4627,7 +4641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -4635,7 +4649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>10</v>
       </c>
@@ -4643,7 +4657,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -4651,12 +4665,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -4682,7 +4696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>166</v>
       </c>
@@ -4705,7 +4719,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
         <v>60</v>
       </c>
@@ -4728,7 +4742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>170</v>
       </c>
@@ -4751,7 +4765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>0</v>
       </c>
@@ -4759,7 +4773,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -4767,7 +4781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>3</v>
       </c>
@@ -4775,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -4783,7 +4797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -4791,7 +4805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -4799,7 +4813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -4807,7 +4821,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -4815,12 +4829,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -4843,7 +4857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>174</v>
       </c>
@@ -4866,7 +4880,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>60</v>
       </c>
@@ -4890,7 +4904,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>0</v>
       </c>
@@ -4898,7 +4912,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -4906,7 +4920,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>3</v>
       </c>
@@ -4914,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -4922,7 +4936,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -4930,7 +4944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -4938,7 +4952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>10</v>
       </c>
@@ -4946,7 +4960,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -4954,12 +4968,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -4982,7 +4996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>176</v>
       </c>
@@ -5005,7 +5019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>60</v>
       </c>
@@ -5030,6 +5044,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I269" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57FA49-D23C-694E-8DCF-8D60EA2073A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490D0725-2A1B-1F40-A9D3-BAB7C04B4AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$269</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,12 +208,6 @@
     <t>sheet rolling, chromium steel</t>
   </si>
   <si>
-    <t>Carbon fiber, weaved, at factory</t>
-  </si>
-  <si>
-    <t>Carbon fiber, weaved</t>
-  </si>
-  <si>
     <t>market for epoxy resin, liquid</t>
   </si>
   <si>
@@ -607,6 +601,12 @@
   </si>
   <si>
     <t>transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
+    <t>carbon fiber, weaved</t>
+  </si>
+  <si>
+    <t>carbon fiber production, weaved, at factory</t>
   </si>
 </sst>
 </file>
@@ -666,24 +666,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -972,36 +964,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1009,7 +1001,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -1017,15 +1009,15 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1033,7 +1025,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1041,7 +1033,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1049,7 +1041,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -1057,12 +1049,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
@@ -1091,8 +1083,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>186</v>
+      <c r="A13" t="s">
+        <v>184</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1110,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1155,7 +1147,7 @@
       <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1178,7 +1170,7 @@
       <c r="G16" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1201,7 +1193,7 @@
       <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1381,7 +1373,7 @@
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -1415,8 +1407,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>134</v>
+      <c r="A27" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B27">
         <v>250</v>
@@ -1433,20 +1425,20 @@
       <c r="G27" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>134</v>
+      <c r="I27" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
@@ -1454,7 +1446,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31">
@@ -1462,15 +1454,15 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
@@ -1478,7 +1470,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
@@ -1486,7 +1478,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
@@ -1494,7 +1486,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
@@ -1502,12 +1494,12 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38" t="s">
@@ -1536,8 +1528,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>134</v>
+      <c r="A39" t="s">
+        <v>132</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1555,7 +1547,7 @@
         <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1646,107 +1638,107 @@
       <c r="G43" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44">
         <v>7.1400000000000006</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
         <v>22</v>
       </c>
       <c r="G44" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>57</v>
+      <c r="I44" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="5">
+        <v>56</v>
+      </c>
+      <c r="B45">
         <v>3.06</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s">
         <v>22</v>
       </c>
       <c r="G45" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>59</v>
+      <c r="I45" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>0.45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
         <v>60</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="5">
+        <v>61</v>
+      </c>
+      <c r="B47">
         <v>0.9</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" t="s">
         <v>22</v>
       </c>
       <c r="G47" t="s">
         <v>23</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>64</v>
+      <c r="I47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48">
         <v>0.9</v>
       </c>
       <c r="C48" t="s">
@@ -1770,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1794,7 +1786,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1810,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1818,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1858,26 +1850,26 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>172</v>
+      <c r="A60" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
         <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1905,7 +1897,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>-2700</v>
@@ -1914,7 +1906,7 @@
         <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1923,12 +1915,12 @@
         <v>23</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>120000</v>
@@ -1946,7 +1938,7 @@
         <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1974,7 +1966,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B65">
         <v>0.56999999999999995</v>
@@ -1992,12 +1984,12 @@
         <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66">
         <v>15.3</v>
@@ -2015,12 +2007,12 @@
         <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B67">
         <v>5340</v>
@@ -2038,12 +2030,12 @@
         <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B68">
         <v>1200</v>
@@ -2055,18 +2047,18 @@
         <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s">
         <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B69">
         <v>9000</v>
@@ -2078,24 +2070,24 @@
         <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s">
         <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
         <v>42</v>
@@ -2107,12 +2099,12 @@
         <v>23</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B71">
         <v>1070</v>
@@ -2121,21 +2113,21 @@
         <v>21</v>
       </c>
       <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
         <v>83</v>
-      </c>
-      <c r="E71" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B72">
         <v>6580</v>
@@ -2147,18 +2139,18 @@
         <v>42</v>
       </c>
       <c r="E72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F72" t="s">
         <v>23</v>
       </c>
       <c r="G72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B73">
         <f>0.6/250</f>
@@ -2171,24 +2163,21 @@
         <v>42</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F73" t="s">
         <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2212,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2228,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2236,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2276,26 +2265,26 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>173</v>
+      <c r="A85" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D85" t="s">
         <v>42</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -2323,7 +2312,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B87">
         <v>-10900</v>
@@ -2332,7 +2321,7 @@
         <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E87" t="s">
         <v>22</v>
@@ -2341,12 +2330,12 @@
         <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B88">
         <v>225000</v>
@@ -2364,7 +2353,7 @@
         <v>23</v>
       </c>
       <c r="G88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -2392,7 +2381,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B90">
         <v>1.9</v>
@@ -2410,12 +2399,12 @@
         <v>23</v>
       </c>
       <c r="G90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B91">
         <v>51.1</v>
@@ -2433,12 +2422,12 @@
         <v>23</v>
       </c>
       <c r="G91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B92">
         <v>21800</v>
@@ -2456,12 +2445,12 @@
         <v>23</v>
       </c>
       <c r="G92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B93">
         <v>1200</v>
@@ -2473,18 +2462,18 @@
         <v>42</v>
       </c>
       <c r="E93" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F93" t="s">
         <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B94">
         <v>9000</v>
@@ -2496,24 +2485,24 @@
         <v>42</v>
       </c>
       <c r="E94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F94" t="s">
         <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B95">
         <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
         <v>42</v>
@@ -2525,12 +2514,12 @@
         <v>23</v>
       </c>
       <c r="G95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B96">
         <v>13600</v>
@@ -2539,21 +2528,21 @@
         <v>21</v>
       </c>
       <c r="D96" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
         <v>83</v>
-      </c>
-      <c r="E96" t="s">
-        <v>84</v>
-      </c>
-      <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B97">
         <v>4390</v>
@@ -2565,18 +2554,18 @@
         <v>42</v>
       </c>
       <c r="E97" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F97" t="s">
         <v>23</v>
       </c>
       <c r="G97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B98">
         <f>0.6/250</f>
@@ -2589,24 +2578,21 @@
         <v>42</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F98" t="s">
         <v>23</v>
       </c>
       <c r="G98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -2630,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -2654,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -2697,14 +2683,14 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>81</v>
+      <c r="A110" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D110" t="s">
         <v>42</v>
@@ -2716,12 +2702,12 @@
         <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>182</v>
+      <c r="A111" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B111">
         <v>-1.4E-5</v>
@@ -2739,12 +2725,12 @@
         <v>23</v>
       </c>
       <c r="H111" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>178</v>
+      <c r="A112" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B112">
         <v>-1.6000000000000001E-4</v>
@@ -2753,7 +2739,7 @@
         <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -2762,12 +2748,12 @@
         <v>23</v>
       </c>
       <c r="H112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="14" t="s">
-        <v>180</v>
+      <c r="A113" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="B113">
         <v>-9.0600000000000007E-5</v>
@@ -2785,12 +2771,12 @@
         <v>23</v>
       </c>
       <c r="H113" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>86</v>
+      <c r="A114" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B114">
         <v>0.2</v>
@@ -2799,7 +2785,7 @@
         <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -2807,13 +2793,13 @@
       <c r="G114" t="s">
         <v>23</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>87</v>
+      <c r="H114" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>88</v>
+      <c r="A115" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B115">
         <v>1.5E-3</v>
@@ -2831,35 +2817,35 @@
         <v>23</v>
       </c>
       <c r="H115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" s="5">
+        <v>9.0599999999999999E-7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B116" s="11">
-        <v>9.0599999999999999E-7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" t="s">
-        <v>42</v>
-      </c>
-      <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>23</v>
-      </c>
-      <c r="H116" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="B117">
         <v>3.5999999999999994E-5</v>
@@ -2877,12 +2863,12 @@
         <v>23</v>
       </c>
       <c r="H117" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>94</v>
+      <c r="A118" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B118">
         <v>0.76800000000000002</v>
@@ -2891,21 +2877,21 @@
         <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G118" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
-      <c r="H118" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="B119">
         <v>2.01E-2</v>
@@ -2917,18 +2903,18 @@
         <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G119" t="s">
         <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>99</v>
+      <c r="A120" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B120">
         <v>2.2200000000000001E-2</v>
@@ -2946,12 +2932,12 @@
         <v>23</v>
       </c>
       <c r="H120" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>101</v>
+      <c r="A121" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B121">
         <v>0.76800000000000002</v>
@@ -2960,23 +2946,23 @@
         <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F121" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G121" t="s">
         <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B122" s="11">
+      <c r="A122" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122" s="5">
         <v>1.6300000000000001E-13</v>
       </c>
       <c r="C122" t="s">
@@ -2992,12 +2978,12 @@
         <v>23</v>
       </c>
       <c r="H122" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>105</v>
+      <c r="A123" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3015,12 +3001,12 @@
         <v>23</v>
       </c>
       <c r="H123" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>107</v>
+      <c r="A124" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B124">
         <v>3.8000000000000002E-4</v>
@@ -3038,12 +3024,12 @@
         <v>23</v>
       </c>
       <c r="H124" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>187</v>
+      <c r="A125" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="B125">
         <v>8.0399999999999985E-3</v>
@@ -3055,476 +3041,476 @@
         <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G125" t="s">
         <v>23</v>
       </c>
       <c r="H125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B126" s="6">
+        <v>2.0333333333333332E-2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" t="s">
+        <v>59</v>
+      </c>
+      <c r="G126" t="s">
+        <v>23</v>
+      </c>
+      <c r="H126" t="s">
         <v>60</v>
       </c>
-      <c r="B126" s="12">
-        <v>2.0333333333333332E-2</v>
-      </c>
-      <c r="C126" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" t="s">
-        <v>42</v>
-      </c>
-      <c r="F126" t="s">
-        <v>61</v>
-      </c>
-      <c r="G126" t="s">
-        <v>23</v>
-      </c>
-      <c r="H126" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>109</v>
+      <c r="A127" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B127">
         <v>4.3600000000000003E-5</v>
       </c>
       <c r="C127" t="s">
+        <v>108</v>
+      </c>
+      <c r="E127" t="s">
+        <v>109</v>
+      </c>
+      <c r="F127" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s">
         <v>110</v>
       </c>
-      <c r="E127" t="s">
+    </row>
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="B128">
         <v>1.9000000000000002E-10</v>
       </c>
       <c r="C128" t="s">
+        <v>108</v>
+      </c>
+      <c r="E128" t="s">
+        <v>109</v>
+      </c>
+      <c r="F128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
         <v>110</v>
       </c>
-      <c r="E128" t="s">
-        <v>111</v>
-      </c>
-      <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
+    </row>
+    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="B129">
         <v>1.3200000000000001E-5</v>
       </c>
       <c r="C129" t="s">
+        <v>108</v>
+      </c>
+      <c r="E129" t="s">
+        <v>113</v>
+      </c>
+      <c r="F129" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
         <v>110</v>
       </c>
-      <c r="E129" t="s">
+    </row>
+    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1.31E-9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>108</v>
+      </c>
+      <c r="E130" t="s">
+        <v>109</v>
+      </c>
+      <c r="F130" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B130" s="11">
-        <v>1.31E-9</v>
-      </c>
-      <c r="C130" t="s">
-        <v>110</v>
-      </c>
-      <c r="E130" t="s">
-        <v>111</v>
-      </c>
-      <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="B131">
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="C131" t="s">
+        <v>108</v>
+      </c>
+      <c r="E131" t="s">
+        <v>113</v>
+      </c>
+      <c r="F131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
         <v>110</v>
       </c>
-      <c r="E131" t="s">
-        <v>115</v>
-      </c>
-      <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>118</v>
+      <c r="A132" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B132">
         <v>1.88E-6</v>
       </c>
       <c r="C132" t="s">
+        <v>108</v>
+      </c>
+      <c r="E132" t="s">
+        <v>113</v>
+      </c>
+      <c r="F132" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
         <v>110</v>
       </c>
-      <c r="E132" t="s">
-        <v>115</v>
-      </c>
-      <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B133" s="11">
+      <c r="A133" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="5">
         <v>7.6000000000000002E-9</v>
       </c>
       <c r="C133" t="s">
+        <v>108</v>
+      </c>
+      <c r="E133" t="s">
+        <v>113</v>
+      </c>
+      <c r="F133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
         <v>110</v>
       </c>
-      <c r="E133" t="s">
-        <v>115</v>
-      </c>
-      <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>120</v>
+      <c r="A134" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B134">
         <v>1.5699999999999999E-4</v>
       </c>
       <c r="C134" t="s">
+        <v>108</v>
+      </c>
+      <c r="E134" t="s">
+        <v>109</v>
+      </c>
+      <c r="F134" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
         <v>110</v>
       </c>
-      <c r="E134" t="s">
-        <v>111</v>
-      </c>
-      <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>121</v>
+      <c r="A135" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B135">
         <v>7.62E-3</v>
       </c>
       <c r="C135" t="s">
+        <v>108</v>
+      </c>
+      <c r="E135" t="s">
+        <v>109</v>
+      </c>
+      <c r="F135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" t="s">
         <v>110</v>
       </c>
-      <c r="E135" t="s">
-        <v>111</v>
-      </c>
-      <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B136" s="11">
+      <c r="A136" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" s="5">
         <v>1.1900000000000001E-7</v>
       </c>
       <c r="C136" t="s">
+        <v>108</v>
+      </c>
+      <c r="E136" t="s">
+        <v>113</v>
+      </c>
+      <c r="F136" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" t="s">
         <v>110</v>
       </c>
-      <c r="E136" t="s">
-        <v>115</v>
-      </c>
-      <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>123</v>
+      <c r="A137" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B137">
         <v>1.8300000000000001E-5</v>
       </c>
       <c r="C137" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" t="s">
+        <v>109</v>
+      </c>
+      <c r="F137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" t="s">
         <v>110</v>
       </c>
-      <c r="E137" t="s">
-        <v>111</v>
-      </c>
-      <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>124</v>
+      <c r="A138" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B138">
         <v>1.3999999999999999E-6</v>
       </c>
       <c r="C138" t="s">
+        <v>108</v>
+      </c>
+      <c r="E138" t="s">
+        <v>109</v>
+      </c>
+      <c r="F138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
         <v>110</v>
       </c>
-      <c r="E138" t="s">
-        <v>111</v>
-      </c>
-      <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>124</v>
+      <c r="A139" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B139">
         <v>5.6499999999999993E-6</v>
       </c>
       <c r="C139" t="s">
+        <v>108</v>
+      </c>
+      <c r="E139" t="s">
+        <v>113</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
         <v>110</v>
       </c>
-      <c r="E139" t="s">
-        <v>115</v>
-      </c>
-      <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" s="5">
+        <v>3.4000000000000003E-9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>108</v>
+      </c>
+      <c r="E140" t="s">
+        <v>109</v>
+      </c>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" s="5">
+        <v>1.51E-9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>108</v>
+      </c>
+      <c r="E141" t="s">
+        <v>113</v>
+      </c>
+      <c r="F141" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" s="5">
+        <v>9.9999999999999986E-10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>108</v>
+      </c>
+      <c r="E142" t="s">
+        <v>113</v>
+      </c>
+      <c r="F142" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B140" s="11">
-        <v>3.4000000000000003E-9</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B143" s="5">
+        <v>1.0399999999999999E-7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>108</v>
+      </c>
+      <c r="E143" t="s">
+        <v>113</v>
+      </c>
+      <c r="F143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" t="s">
         <v>110</v>
       </c>
-      <c r="E140" t="s">
-        <v>111</v>
-      </c>
-      <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B141" s="11">
-        <v>1.51E-9</v>
-      </c>
-      <c r="C141" t="s">
+    </row>
+    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B144" s="5">
+        <v>9.0000000000000012E-8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>108</v>
+      </c>
+      <c r="E144" t="s">
+        <v>113</v>
+      </c>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
         <v>110</v>
       </c>
-      <c r="E141" t="s">
-        <v>115</v>
-      </c>
-      <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B142" s="11">
-        <v>9.9999999999999986E-10</v>
-      </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="5">
+        <v>2.2399999999999999E-7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>108</v>
+      </c>
+      <c r="E145" t="s">
+        <v>113</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
         <v>110</v>
       </c>
-      <c r="E142" t="s">
-        <v>115</v>
-      </c>
-      <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B143" s="11">
-        <v>1.0399999999999999E-7</v>
-      </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B146" s="5">
+        <v>2.9700000000000003E-7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>108</v>
+      </c>
+      <c r="E146" t="s">
+        <v>113</v>
+      </c>
+      <c r="F146" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s">
         <v>110</v>
       </c>
-      <c r="E143" t="s">
-        <v>115</v>
-      </c>
-      <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B144" s="11">
-        <v>9.0000000000000012E-8</v>
-      </c>
-      <c r="C144" t="s">
+    </row>
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="5">
+        <v>2.7500000000000001E-5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>108</v>
+      </c>
+      <c r="E147" t="s">
+        <v>109</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
         <v>110</v>
       </c>
-      <c r="E144" t="s">
-        <v>115</v>
-      </c>
-      <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B145" s="11">
-        <v>2.2399999999999999E-7</v>
-      </c>
-      <c r="C145" t="s">
+    </row>
+    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B148" s="5">
+        <v>1.9E-6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>108</v>
+      </c>
+      <c r="E148" t="s">
+        <v>113</v>
+      </c>
+      <c r="F148" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s">
         <v>110</v>
-      </c>
-      <c r="E145" t="s">
-        <v>115</v>
-      </c>
-      <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B146" s="11">
-        <v>2.9700000000000003E-7</v>
-      </c>
-      <c r="C146" t="s">
-        <v>110</v>
-      </c>
-      <c r="E146" t="s">
-        <v>115</v>
-      </c>
-      <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B147" s="11">
-        <v>2.7500000000000001E-5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>110</v>
-      </c>
-      <c r="E147" t="s">
-        <v>111</v>
-      </c>
-      <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B148" s="11">
-        <v>1.9E-6</v>
-      </c>
-      <c r="C148" t="s">
-        <v>110</v>
-      </c>
-      <c r="E148" t="s">
-        <v>115</v>
-      </c>
-      <c r="F148" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3532,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -3556,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -3580,7 +3566,7 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -3623,14 +3609,14 @@
       </c>
     </row>
     <row r="160" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>136</v>
+      <c r="A160" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D160" t="s">
         <v>42</v>
@@ -3642,14 +3628,14 @@
         <v>19</v>
       </c>
       <c r="H160" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B161" s="11">
+      <c r="A161" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" s="5">
         <v>1.61E-7</v>
       </c>
       <c r="C161" t="s">
@@ -3665,37 +3651,37 @@
         <v>23</v>
       </c>
       <c r="H161" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B162" s="5">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" t="s">
+        <v>140</v>
+      </c>
+      <c r="F162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G162" t="s">
+        <v>23</v>
+      </c>
+      <c r="H162" t="s">
         <v>141</v>
       </c>
-      <c r="B162" s="11">
-        <v>3.1999999999999999E-5</v>
-      </c>
-      <c r="C162" t="s">
-        <v>21</v>
-      </c>
-      <c r="D162" t="s">
-        <v>142</v>
-      </c>
-      <c r="F162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" t="s">
-        <v>23</v>
-      </c>
-      <c r="H162" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B163" s="11">
+      <c r="A163" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163" s="5">
         <v>3.2000000000000003E-4</v>
       </c>
       <c r="C163" t="s">
@@ -3711,14 +3697,14 @@
         <v>23</v>
       </c>
       <c r="H163" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B164" s="11">
+      <c r="A164" t="s">
+        <v>146</v>
+      </c>
+      <c r="B164" s="5">
         <v>0.16600000000000001</v>
       </c>
       <c r="C164" t="s">
@@ -3734,30 +3720,30 @@
         <v>23</v>
       </c>
       <c r="H164" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
+      <c r="A165" t="s">
+        <v>58</v>
+      </c>
+      <c r="B165" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="C165" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165" t="s">
+        <v>59</v>
+      </c>
+      <c r="G165" t="s">
+        <v>23</v>
+      </c>
+      <c r="H165" t="s">
         <v>60</v>
-      </c>
-      <c r="B165" s="11">
-        <v>0.66</v>
-      </c>
-      <c r="C165" t="s">
-        <v>21</v>
-      </c>
-      <c r="D165" t="s">
-        <v>42</v>
-      </c>
-      <c r="F165" t="s">
-        <v>61</v>
-      </c>
-      <c r="G165" t="s">
-        <v>23</v>
-      </c>
-      <c r="H165" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3765,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -3789,7 +3775,7 @@
         <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -3813,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -3856,14 +3842,14 @@
       </c>
     </row>
     <row r="177" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>146</v>
+      <c r="A177" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D177" t="s">
         <v>42</v>
@@ -3875,14 +3861,14 @@
         <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B178" s="11">
+      <c r="A178" t="s">
+        <v>142</v>
+      </c>
+      <c r="B178" s="5">
         <v>1.61E-7</v>
       </c>
       <c r="C178" t="s">
@@ -3898,37 +3884,37 @@
         <v>23</v>
       </c>
       <c r="H178" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B179" s="5">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" t="s">
+        <v>140</v>
+      </c>
+      <c r="F179" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>23</v>
+      </c>
+      <c r="H179" t="s">
         <v>141</v>
       </c>
-      <c r="B179" s="11">
-        <v>3.1999999999999999E-5</v>
-      </c>
-      <c r="C179" t="s">
-        <v>21</v>
-      </c>
-      <c r="D179" t="s">
-        <v>142</v>
-      </c>
-      <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
-        <v>23</v>
-      </c>
-      <c r="H179" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B180" s="11">
+      <c r="A180" t="s">
+        <v>137</v>
+      </c>
+      <c r="B180" s="5">
         <v>3.2000000000000003E-4</v>
       </c>
       <c r="C180" t="s">
@@ -3944,14 +3930,14 @@
         <v>23</v>
       </c>
       <c r="H180" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B181" s="11">
+      <c r="A181" t="s">
+        <v>146</v>
+      </c>
+      <c r="B181" s="5">
         <v>0.16600000000000001</v>
       </c>
       <c r="C181" t="s">
@@ -3967,35 +3953,35 @@
         <v>23</v>
       </c>
       <c r="H181" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
+      <c r="A182" t="s">
+        <v>58</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C182" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182" t="s">
+        <v>42</v>
+      </c>
+      <c r="F182" t="s">
+        <v>59</v>
+      </c>
+      <c r="G182" t="s">
+        <v>23</v>
+      </c>
+      <c r="H182" t="s">
         <v>60</v>
       </c>
-      <c r="B182" s="11">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C182" t="s">
-        <v>21</v>
-      </c>
-      <c r="D182" t="s">
-        <v>42</v>
-      </c>
-      <c r="F182" t="s">
-        <v>61</v>
-      </c>
-      <c r="G182" t="s">
-        <v>23</v>
-      </c>
-      <c r="H182" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="5" t="s">
-        <v>97</v>
+      <c r="A183" t="s">
+        <v>95</v>
       </c>
       <c r="B183">
         <f>9.5*3.6</f>
@@ -4008,13 +3994,13 @@
         <v>42</v>
       </c>
       <c r="F183" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G183" t="s">
         <v>23</v>
       </c>
       <c r="H183" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4022,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -4046,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -4070,7 +4056,7 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -4113,10 +4099,10 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B195" s="13">
+      <c r="A195" t="s">
+        <v>146</v>
+      </c>
+      <c r="B195" s="7">
         <v>1</v>
       </c>
       <c r="C195" t="s">
@@ -4132,12 +4118,12 @@
         <v>19</v>
       </c>
       <c r="H195" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
-        <v>150</v>
+      <c r="A196" t="s">
+        <v>148</v>
       </c>
       <c r="B196">
         <v>1.2</v>
@@ -4146,7 +4132,7 @@
         <v>21</v>
       </c>
       <c r="D196" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F196" t="s">
         <v>22</v>
@@ -4154,13 +4140,13 @@
       <c r="G196" t="s">
         <v>23</v>
       </c>
-      <c r="H196" s="7" t="s">
-        <v>151</v>
+      <c r="H196" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="7" t="s">
-        <v>152</v>
+      <c r="A197" t="s">
+        <v>150</v>
       </c>
       <c r="B197">
         <v>1.03</v>
@@ -4177,13 +4163,13 @@
       <c r="G197" t="s">
         <v>23</v>
       </c>
-      <c r="H197" s="7" t="s">
-        <v>153</v>
+      <c r="H197" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="7" t="s">
-        <v>154</v>
+      <c r="A198" t="s">
+        <v>152</v>
       </c>
       <c r="B198">
         <v>0.26</v>
@@ -4200,15 +4186,15 @@
       <c r="G198" t="s">
         <v>23</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="H198" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B199" s="11">
+      <c r="B199" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C199" t="s">
@@ -4223,13 +4209,13 @@
       <c r="G199" t="s">
         <v>23</v>
       </c>
-      <c r="H199" s="7" t="s">
-        <v>158</v>
+      <c r="H199" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
-        <v>60</v>
+      <c r="A200" t="s">
+        <v>58</v>
       </c>
       <c r="B200">
         <v>42.1</v>
@@ -4241,18 +4227,18 @@
         <v>42</v>
       </c>
       <c r="F200" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G200" t="s">
         <v>23</v>
       </c>
       <c r="H200" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
-        <v>97</v>
+      <c r="A201" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B201">
         <v>2.7</v>
@@ -4264,18 +4250,18 @@
         <v>42</v>
       </c>
       <c r="F201" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G201" t="s">
         <v>23</v>
       </c>
       <c r="H201" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B202">
         <v>0.2</v>
@@ -4287,13 +4273,13 @@
         <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G202" t="s">
         <v>23</v>
       </c>
       <c r="H202" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4301,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -4325,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -4348,8 +4334,8 @@
       <c r="A210" t="s">
         <v>10</v>
       </c>
-      <c r="B210" s="7" t="s">
-        <v>161</v>
+      <c r="B210" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -4392,10 +4378,10 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B214" s="13">
+      <c r="A214" t="s">
+        <v>160</v>
+      </c>
+      <c r="B214" s="7">
         <v>1</v>
       </c>
       <c r="C214" t="s">
@@ -4411,12 +4397,12 @@
         <v>19</v>
       </c>
       <c r="H214" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="7" t="s">
-        <v>60</v>
+      <c r="A215" t="s">
+        <v>58</v>
       </c>
       <c r="B215">
         <v>9.375E-2</v>
@@ -4428,18 +4414,18 @@
         <v>42</v>
       </c>
       <c r="F215" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G215" t="s">
         <v>23</v>
       </c>
       <c r="H215" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="7" t="s">
-        <v>159</v>
+      <c r="A216" t="s">
+        <v>157</v>
       </c>
       <c r="B216">
         <v>31.25</v>
@@ -4448,7 +4434,7 @@
         <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F216" t="s">
         <v>22</v>
@@ -4457,7 +4443,7 @@
         <v>23</v>
       </c>
       <c r="H216" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4465,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -4489,7 +4475,7 @@
         <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -4512,8 +4498,8 @@
       <c r="A224" t="s">
         <v>10</v>
       </c>
-      <c r="B224" s="7" t="s">
-        <v>165</v>
+      <c r="B224" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -4556,10 +4542,10 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B228" s="13">
+      <c r="A228" t="s">
+        <v>161</v>
+      </c>
+      <c r="B228" s="7">
         <v>1</v>
       </c>
       <c r="C228" t="s">
@@ -4575,12 +4561,12 @@
         <v>19</v>
       </c>
       <c r="H228" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="7" t="s">
-        <v>60</v>
+      <c r="A229" t="s">
+        <v>58</v>
       </c>
       <c r="B229">
         <v>0.34399999999999997</v>
@@ -4592,13 +4578,13 @@
         <v>42</v>
       </c>
       <c r="F229" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G229" t="s">
         <v>23</v>
       </c>
       <c r="H229" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4606,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -4630,7 +4616,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -4653,16 +4639,16 @@
       <c r="A237" t="s">
         <v>10</v>
       </c>
-      <c r="B237" s="7" t="s">
-        <v>169</v>
+      <c r="B237" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>8</v>
       </c>
-      <c r="B238" s="7" t="s">
-        <v>167</v>
+      <c r="B238" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4698,13 +4684,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D241" t="s">
         <v>42</v>
@@ -4716,12 +4702,12 @@
         <v>19</v>
       </c>
       <c r="H241" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="7" t="s">
-        <v>60</v>
+      <c r="A242" t="s">
+        <v>58</v>
       </c>
       <c r="B242">
         <v>2.46</v>
@@ -4733,18 +4719,18 @@
         <v>42</v>
       </c>
       <c r="F242" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G242" t="s">
         <v>23</v>
       </c>
       <c r="H242" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="7" t="s">
-        <v>170</v>
+      <c r="A243" t="s">
+        <v>168</v>
       </c>
       <c r="B243">
         <v>2.3999999999999998E-3</v>
@@ -4762,7 +4748,7 @@
         <v>23</v>
       </c>
       <c r="H243" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4770,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -4794,7 +4780,7 @@
         <v>4</v>
       </c>
       <c r="B248" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -4810,7 +4796,7 @@
         <v>7</v>
       </c>
       <c r="B250" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -4818,7 +4804,7 @@
         <v>10</v>
       </c>
       <c r="B251" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -4858,31 +4844,31 @@
       </c>
     </row>
     <row r="255" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="4" t="s">
-        <v>174</v>
+      <c r="A255" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D255" t="s">
         <v>42</v>
       </c>
       <c r="E255" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F255" t="s">
         <v>19</v>
       </c>
       <c r="G255" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="7" t="s">
-        <v>60</v>
+      <c r="A256" t="s">
+        <v>58</v>
       </c>
       <c r="B256">
         <f>0.6/250</f>
@@ -4895,13 +4881,13 @@
         <v>42</v>
       </c>
       <c r="E256" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F256" t="s">
         <v>23</v>
       </c>
       <c r="G256" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4909,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -4933,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -4949,7 +4935,7 @@
         <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -4957,7 +4943,7 @@
         <v>10</v>
       </c>
       <c r="B264" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -4997,31 +4983,31 @@
       </c>
     </row>
     <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
-        <v>176</v>
+      <c r="A268" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D268" t="s">
         <v>42</v>
       </c>
       <c r="E268" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F268" t="s">
         <v>19</v>
       </c>
       <c r="G268" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" s="7" t="s">
-        <v>60</v>
+      <c r="A269" t="s">
+        <v>58</v>
       </c>
       <c r="B269">
         <f>0.6/250</f>
@@ -5034,13 +5020,13 @@
         <v>42</v>
       </c>
       <c r="E269" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F269" t="s">
         <v>23</v>
       </c>
       <c r="G269" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551A7524-F119-4B43-8A3D-4105E03BD70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3FAA1F-1CD8-FA43-8809-8E082AF0BC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1600" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$458</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$383</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="261">
   <si>
     <t>Activity</t>
   </si>
@@ -245,24 +245,6 @@
   </si>
   <si>
     <t>decommissioned pipeline, natural gas</t>
-  </si>
-  <si>
-    <t>market for silica sand</t>
-  </si>
-  <si>
-    <t>silica sand</t>
-  </si>
-  <si>
-    <t>market for silicone product</t>
-  </si>
-  <si>
-    <t>silicone product</t>
-  </si>
-  <si>
-    <t>market for zinc</t>
-  </si>
-  <si>
-    <t>zinc</t>
   </si>
   <si>
     <t>drawing of pipe, steel</t>
@@ -498,9 +480,6 @@
 Pages 12095-12107, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2020.02.121.</t>
   </si>
   <si>
-    <t>LCI of 1 km distribution and transmission pipeline adapted from (Faist Emmenegger et al., 2007a, b; Krieg, 2012). Includes electricity for recompression every 250 km.</t>
-  </si>
-  <si>
     <t>LCI of inhibiting the embrittlement effect of 1 kg of distributed hydrogen when using reassigned CNG pipelines. It consists of adding inhibiting gases (oxygen, in this case) prior to injection and separating the hydrogen from the other gases at the exit. The inihibting gases are assumed to be released to the air afterwards.</t>
   </si>
   <si>
@@ -508,24 +487,6 @@
   </si>
   <si>
     <t>oxygen, liquid</t>
-  </si>
-  <si>
-    <t>distribution pipeline for hydrogen, dedicated hydrogen pipeline</t>
-  </si>
-  <si>
-    <t>transmission pipeline for hydrogen, dedicated hydrogen pipeline</t>
-  </si>
-  <si>
-    <t>distribution pipeline for hydrogen, reassigned CNG pipeline</t>
-  </si>
-  <si>
-    <t>LCI of 1 km distribution pipeline. Because it is an old CNG pipeline, it only includes electricity for recompression every 250 km, no the capital investment in the pipeline.</t>
-  </si>
-  <si>
-    <t>transmission pipeline for hydrogen, reassigned CNG pipeline</t>
-  </si>
-  <si>
-    <t>LCI of 1 km transmission pipeline. Because it is an old CNG pipeline, it only includes electricity for recompression every 250 km, no the capital investment in the pipeline.</t>
   </si>
   <si>
     <t>treatment of waste mineral oil, hazardous waste incineration</t>
@@ -1276,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T458"/>
+  <dimension ref="A1:T382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="J219" sqref="J219"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1327,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1398,7 +1359,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1416,7 +1377,7 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1687,7 +1648,7 @@
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -1722,7 +1683,7 @@
     </row>
     <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B27">
         <v>250</v>
@@ -1740,7 +1701,7 @@
         <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1748,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1772,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1843,7 +1804,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1861,7 +1822,7 @@
         <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1958,7 +1919,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B44">
         <v>7.1400000000000006</v>
@@ -1976,7 +1937,7 @@
         <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -2076,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -2101,10 +2062,10 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2126,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -2168,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -2182,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -2231,40 +2192,40 @@
         <v>17</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P60" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B61" s="8">
         <v>1</v>
@@ -2291,7 +2252,7 @@
     </row>
     <row r="62" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B62" s="12">
         <v>1</v>
@@ -2306,7 +2267,7 @@
         <v>23</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I62" s="8">
         <v>2</v>
@@ -2353,7 +2314,7 @@
     </row>
     <row r="63" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B63" s="9">
         <v>1</v>
@@ -2368,7 +2329,7 @@
         <v>23</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I63" s="8">
         <v>2</v>
@@ -2406,7 +2367,7 @@
     </row>
     <row r="64" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B64" s="9">
         <v>-1</v>
@@ -2421,7 +2382,7 @@
         <v>23</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="I64" s="8">
         <v>2</v>
@@ -2462,7 +2423,7 @@
     </row>
     <row r="65" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B65" s="9">
         <f>26*1%</f>
@@ -2472,16 +2433,16 @@
         <v>2</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I65" s="8">
         <v>2</v>
@@ -2518,7 +2479,7 @@
     </row>
     <row r="66" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B66" s="9">
         <f>10.4*1%</f>
@@ -2534,10 +2495,10 @@
         <v>23</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I66" s="8">
         <v>2</v>
@@ -2574,20 +2535,20 @@
     </row>
     <row r="67" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B67" s="9">
         <f>2000*1%</f>
         <v>20</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E67" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I67" s="8">
         <v>2</v>
@@ -2624,20 +2585,20 @@
     </row>
     <row r="68" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B68" s="9">
         <f>2000*1%</f>
         <v>20</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I68" s="8">
         <v>2</v>
@@ -2674,20 +2635,20 @@
     </row>
     <row r="69" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B69" s="9">
         <f>2.49*1%</f>
         <v>2.4900000000000002E-2</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I69" s="8">
         <v>2</v>
@@ -2724,20 +2685,20 @@
     </row>
     <row r="70" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B70" s="9">
         <f>2.49*1%</f>
         <v>2.4900000000000002E-2</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E70" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I70" s="8">
         <v>2</v>
@@ -2774,20 +2735,20 @@
     </row>
     <row r="71" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B71" s="8">
         <f>3300*1%</f>
         <v>33</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I71" s="8">
         <v>2</v>
@@ -2824,20 +2785,20 @@
     </row>
     <row r="72" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B72" s="9">
         <f>187*1%</f>
         <v>1.87</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I72" s="8">
         <v>2</v>
@@ -2874,20 +2835,20 @@
     </row>
     <row r="73" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B73" s="9">
         <f>28.05*1%</f>
         <v>0.28050000000000003</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I73" s="8">
         <v>2</v>
@@ -2924,20 +2885,20 @@
     </row>
     <row r="74" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B74" s="9">
         <f>158.95*1%</f>
         <v>1.5894999999999999</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I74" s="8">
         <v>2</v>
@@ -2988,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -3013,10 +2974,10 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3038,7 +2999,7 @@
         <v>4</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
@@ -3080,7 +3041,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
@@ -3094,7 +3055,7 @@
         <v>8</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -3143,34 +3104,34 @@
         <v>17</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P86" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T86" s="1"/>
     </row>
@@ -3204,7 +3165,7 @@
     </row>
     <row r="88" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B88" s="12">
         <v>1</v>
@@ -3219,7 +3180,7 @@
         <v>23</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I88" s="8">
         <v>2</v>
@@ -3266,7 +3227,7 @@
     </row>
     <row r="89" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B89" s="9">
         <v>1</v>
@@ -3281,7 +3242,7 @@
         <v>23</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I89" s="8">
         <v>2</v>
@@ -3319,7 +3280,7 @@
     </row>
     <row r="90" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B90" s="9">
         <v>-1</v>
@@ -3334,7 +3295,7 @@
         <v>23</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I90" s="8">
         <v>2</v>
@@ -3375,7 +3336,7 @@
     </row>
     <row r="91" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B91" s="9">
         <v>26</v>
@@ -3384,16 +3345,16 @@
         <v>2</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I91" s="8">
         <v>2</v>
@@ -3430,7 +3391,7 @@
     </row>
     <row r="92" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B92" s="9">
         <v>10.4</v>
@@ -3445,10 +3406,10 @@
         <v>23</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I92" s="8">
         <v>2</v>
@@ -3485,19 +3446,19 @@
     </row>
     <row r="93" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B93" s="9">
         <v>2000</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E93" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I93" s="8">
         <v>2</v>
@@ -3534,19 +3495,19 @@
     </row>
     <row r="94" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B94" s="9">
         <v>2000</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E94" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I94" s="8">
         <v>2</v>
@@ -3583,19 +3544,19 @@
     </row>
     <row r="95" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B95" s="9">
         <v>2.4900000000000002</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E95" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I95" s="8">
         <v>2</v>
@@ -3632,19 +3593,19 @@
     </row>
     <row r="96" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B96" s="9">
         <v>2.4900000000000002</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E96" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I96" s="8">
         <v>2</v>
@@ -3681,19 +3642,19 @@
     </row>
     <row r="97" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B97" s="8">
         <v>3300</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I97" s="8">
         <v>2</v>
@@ -3730,19 +3691,19 @@
     </row>
     <row r="98" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B98" s="9">
         <v>187</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I98" s="8">
         <v>2</v>
@@ -3779,19 +3740,19 @@
     </row>
     <row r="99" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B99" s="9">
         <v>28.05</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I99" s="8">
         <v>2</v>
@@ -3828,19 +3789,19 @@
     </row>
     <row r="100" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B100" s="9">
         <v>158.94999999999999</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I100" s="8">
         <v>2</v>
@@ -3891,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -3916,10 +3877,10 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3941,7 +3902,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -3983,7 +3944,7 @@
         <v>10</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -3997,7 +3958,7 @@
         <v>8</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -4046,34 +4007,34 @@
         <v>17</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K112" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L112" s="11" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M112" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N112" s="11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O112" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S112" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T112" s="1"/>
     </row>
@@ -4095,7 +4056,7 @@
         <v>19</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
@@ -4106,7 +4067,7 @@
     </row>
     <row r="114" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B114" s="14">
         <v>2E-3</v>
@@ -4115,16 +4076,16 @@
         <v>67</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I114" s="8">
         <v>2</v>
@@ -4171,7 +4132,7 @@
     </row>
     <row r="115" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B115" s="14">
         <v>0.16</v>
@@ -4180,16 +4141,16 @@
         <v>42</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I115" s="8">
         <v>2</v>
@@ -4226,7 +4187,7 @@
     </row>
     <row r="116" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B116" s="14">
         <v>7914.4736000000003</v>
@@ -4241,10 +4202,10 @@
         <v>23</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I116" s="8">
         <v>2</v>
@@ -4281,7 +4242,7 @@
     </row>
     <row r="117" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B117" s="14">
         <v>38.302300000000002</v>
@@ -4290,16 +4251,16 @@
         <v>42</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I117" s="8">
         <v>2</v>
@@ -4336,7 +4297,7 @@
     </row>
     <row r="118" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B118" s="8">
         <v>446.05</v>
@@ -4351,10 +4312,10 @@
         <v>23</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I118" s="8">
         <v>2</v>
@@ -4391,7 +4352,7 @@
     </row>
     <row r="119" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B119" s="14">
         <v>55.991700000000002</v>
@@ -4406,10 +4367,10 @@
         <v>23</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I119" s="8">
         <v>2</v>
@@ -4464,7 +4425,7 @@
         <v>24</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I120" s="8">
         <v>2</v>
@@ -4515,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -4540,10 +4501,10 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4565,7 +4526,7 @@
         <v>4</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
@@ -4607,7 +4568,7 @@
         <v>10</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
@@ -4621,7 +4582,7 @@
         <v>8</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
@@ -4670,34 +4631,34 @@
         <v>17</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L132" s="11" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O132" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P132" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S132" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T132" s="1"/>
     </row>
@@ -4719,7 +4680,7 @@
         <v>19</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
@@ -4730,7 +4691,7 @@
     </row>
     <row r="134" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B134" s="9">
         <v>12</v>
@@ -4739,16 +4700,16 @@
         <v>42</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I134" s="8">
         <v>2</v>
@@ -4795,7 +4756,7 @@
     </row>
     <row r="135" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B135" s="9">
         <v>190</v>
@@ -4804,16 +4765,16 @@
         <v>42</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I135" s="8">
         <v>2</v>
@@ -4850,7 +4811,7 @@
     </row>
     <row r="136" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B136" s="9">
         <v>22800</v>
@@ -4865,10 +4826,10 @@
         <v>23</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I136" s="8">
         <v>2</v>
@@ -4905,25 +4866,25 @@
     </row>
     <row r="137" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B137" s="9">
         <v>1201.7149000000002</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I137" s="8">
         <v>2</v>
@@ -4974,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
@@ -4999,10 +4960,10 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5024,7 +4985,7 @@
         <v>4</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
@@ -5038,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
@@ -5066,7 +5027,7 @@
         <v>10</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
@@ -5080,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
@@ -5129,34 +5090,34 @@
         <v>17</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K149" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L149" s="11" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M149" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N149" s="11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O149" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P149" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S149" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T149" s="1"/>
     </row>
@@ -5208,7 +5169,7 @@
         <v>68</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I151" s="8">
         <v>2</v>
@@ -5258,13 +5219,13 @@
     </row>
     <row r="152" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B152" s="8">
         <v>-27.324000000000002</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>22</v>
@@ -5273,10 +5234,10 @@
         <v>23</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I152" s="8">
         <v>2</v>
@@ -5327,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
@@ -5352,10 +5313,10 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5377,7 +5338,7 @@
         <v>4</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -5419,7 +5380,7 @@
         <v>10</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -5433,7 +5394,7 @@
         <v>8</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -5482,34 +5443,34 @@
         <v>17</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K164" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L164" s="11" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M164" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N164" s="11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O164" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P164" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="R164" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S164" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T164" s="1"/>
     </row>
@@ -5531,7 +5492,7 @@
         <v>19</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
@@ -5542,7 +5503,7 @@
     </row>
     <row r="166" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B166" s="14">
         <v>0.2</v>
@@ -5551,16 +5512,16 @@
         <v>67</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I166" s="8">
         <v>2</v>
@@ -5607,7 +5568,7 @@
     </row>
     <row r="167" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B167" s="14">
         <v>16</v>
@@ -5616,16 +5577,16 @@
         <v>42</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F167" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I167" s="8">
         <v>2</v>
@@ -5662,7 +5623,7 @@
     </row>
     <row r="168" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B168" s="14">
         <v>791447.36</v>
@@ -5677,10 +5638,10 @@
         <v>23</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I168" s="8">
         <v>2</v>
@@ -5717,7 +5678,7 @@
     </row>
     <row r="169" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B169" s="14">
         <v>3830.23</v>
@@ -5726,16 +5687,16 @@
         <v>42</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F169" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I169" s="8">
         <v>2</v>
@@ -5772,7 +5733,7 @@
     </row>
     <row r="170" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B170" s="8">
         <v>446.05</v>
@@ -5787,10 +5748,10 @@
         <v>23</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I170" s="8">
         <v>2</v>
@@ -5827,7 +5788,7 @@
     </row>
     <row r="171" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B171" s="14">
         <v>5599.17</v>
@@ -5842,10 +5803,10 @@
         <v>23</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I171" s="8">
         <v>2</v>
@@ -5900,7 +5861,7 @@
         <v>24</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I172" s="8">
         <v>2</v>
@@ -5951,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
@@ -5976,10 +5937,10 @@
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -6001,7 +5962,7 @@
         <v>4</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
@@ -6043,7 +6004,7 @@
         <v>10</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
@@ -6057,7 +6018,7 @@
         <v>8</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
@@ -6106,34 +6067,34 @@
         <v>17</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K184" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L184" s="11" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M184" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N184" s="11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O184" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P184" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="R184" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S184" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T184" s="1"/>
     </row>
@@ -6155,7 +6116,7 @@
         <v>19</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K185" s="9"/>
       <c r="L185" s="9"/>
@@ -6166,7 +6127,7 @@
     </row>
     <row r="186" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B186" s="9">
         <v>1200</v>
@@ -6175,16 +6136,16 @@
         <v>42</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F186" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I186" s="8">
         <v>2</v>
@@ -6231,7 +6192,7 @@
     </row>
     <row r="187" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B187" s="9">
         <v>19000</v>
@@ -6240,16 +6201,16 @@
         <v>42</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F187" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I187" s="8">
         <v>2</v>
@@ -6286,7 +6247,7 @@
     </row>
     <row r="188" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B188" s="9">
         <v>2280000</v>
@@ -6301,10 +6262,10 @@
         <v>23</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I188" s="8">
         <v>2</v>
@@ -6341,25 +6302,25 @@
     </row>
     <row r="189" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B189" s="9">
         <v>120171.49</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F189" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I189" s="8">
         <v>2</v>
@@ -6410,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="K191" s="9"/>
       <c r="L191" s="9"/>
@@ -6435,10 +6396,10 @@
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -6460,7 +6421,7 @@
         <v>4</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="K195" s="9"/>
       <c r="L195" s="9"/>
@@ -6474,7 +6435,7 @@
         <v>5</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="K196" s="9"/>
       <c r="L196" s="9"/>
@@ -6502,7 +6463,7 @@
         <v>10</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K198" s="9"/>
       <c r="L198" s="9"/>
@@ -6516,7 +6477,7 @@
         <v>8</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K199" s="9"/>
       <c r="L199" s="9"/>
@@ -6565,34 +6526,34 @@
         <v>17</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K201" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L201" s="11" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M201" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N201" s="11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O201" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P201" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q201" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="R201" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S201" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T201" s="1"/>
     </row>
@@ -6644,7 +6605,7 @@
         <v>68</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I203" s="8">
         <v>2</v>
@@ -6694,13 +6655,13 @@
     </row>
     <row r="204" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B204" s="8">
         <v>-2732.4</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D204" s="8" t="s">
         <v>22</v>
@@ -6709,10 +6670,10 @@
         <v>23</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I204" s="8">
         <v>2</v>
@@ -6763,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K206" s="9"/>
       <c r="L206" s="9"/>
@@ -6788,10 +6749,10 @@
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -6813,7 +6774,7 @@
         <v>4</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K210" s="9"/>
       <c r="L210" s="9"/>
@@ -6855,7 +6816,7 @@
         <v>10</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K213" s="9"/>
       <c r="L213" s="9"/>
@@ -6918,40 +6879,40 @@
         <v>17</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K216" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L216" s="11" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M216" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N216" s="11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O216" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P216" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="R216" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S216" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T216" s="1"/>
     </row>
     <row r="217" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B217" s="8">
         <v>1</v>
@@ -6966,7 +6927,7 @@
         <v>19</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K217" s="9"/>
       <c r="L217" s="9"/>
@@ -6977,7 +6938,7 @@
     </row>
     <row r="218" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B218" s="8">
         <v>-1.4E-5</v>
@@ -6992,7 +6953,7 @@
         <v>23</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="I218" s="8">
         <v>2</v>
@@ -7042,13 +7003,13 @@
     </row>
     <row r="219" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B219" s="8">
         <v>-1.6000000000000001E-4</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D219" s="8" t="s">
         <v>22</v>
@@ -7057,7 +7018,7 @@
         <v>23</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="I219" s="8">
         <v>2</v>
@@ -7097,7 +7058,7 @@
     </row>
     <row r="220" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B220" s="8">
         <v>-9.0600000000000007E-5</v>
@@ -7112,7 +7073,7 @@
         <v>23</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="I220" s="8">
         <v>2</v>
@@ -7152,13 +7113,13 @@
     </row>
     <row r="221" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B221" s="8">
         <v>0.2</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D221" s="8" t="s">
         <v>22</v>
@@ -7167,7 +7128,7 @@
         <v>23</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I221" s="8">
         <v>2</v>
@@ -7204,7 +7165,7 @@
     </row>
     <row r="222" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B222" s="8">
         <v>1.5E-3</v>
@@ -7219,7 +7180,7 @@
         <v>23</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I222" s="8">
         <v>2</v>
@@ -7256,7 +7217,7 @@
     </row>
     <row r="223" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B223" s="15">
         <v>9.0599999999999999E-7</v>
@@ -7271,7 +7232,7 @@
         <v>23</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I223" s="8">
         <v>2</v>
@@ -7308,7 +7269,7 @@
     </row>
     <row r="224" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B224" s="8">
         <v>3.5999999999999994E-5</v>
@@ -7323,7 +7284,7 @@
         <v>23</v>
       </c>
       <c r="G224" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I224" s="8">
         <v>2</v>
@@ -7360,22 +7321,22 @@
     </row>
     <row r="225" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B225" s="8">
         <v>0.76800000000000002</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F225" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I225" s="8">
         <v>2</v>
@@ -7412,7 +7373,7 @@
     </row>
     <row r="226" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B226" s="8">
         <v>2.01E-2</v>
@@ -7421,13 +7382,13 @@
         <v>42</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F226" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I226" s="8">
         <v>2</v>
@@ -7464,7 +7425,7 @@
     </row>
     <row r="227" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B227" s="8">
         <v>2.2200000000000001E-2</v>
@@ -7479,7 +7440,7 @@
         <v>23</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I227" s="8">
         <v>2</v>
@@ -7516,22 +7477,22 @@
     </row>
     <row r="228" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B228" s="8">
         <v>0.76800000000000002</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F228" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G228" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I228" s="8">
         <v>2</v>
@@ -7568,7 +7529,7 @@
     </row>
     <row r="229" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B229" s="15">
         <v>1.6300000000000001E-13</v>
@@ -7583,7 +7544,7 @@
         <v>23</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I229" s="8">
         <v>2</v>
@@ -7620,7 +7581,7 @@
     </row>
     <row r="230" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B230" s="8">
         <v>1</v>
@@ -7635,7 +7596,7 @@
         <v>23</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="I230" s="8">
         <v>2</v>
@@ -7672,7 +7633,7 @@
     </row>
     <row r="231" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B231" s="8">
         <v>3.8000000000000002E-4</v>
@@ -7687,7 +7648,7 @@
         <v>23</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I231" s="8">
         <v>2</v>
@@ -7724,7 +7685,7 @@
     </row>
     <row r="232" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B232" s="8">
         <v>8.0399999999999985E-3</v>
@@ -7733,13 +7694,13 @@
         <v>42</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F232" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="I232" s="8">
         <v>2</v>
@@ -7828,7 +7789,7 @@
     </row>
     <row r="234" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B234" s="8">
         <v>4.3600000000000003E-5</v>
@@ -7837,10 +7798,10 @@
         <v>22</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I234" s="8">
         <v>2</v>
@@ -7877,7 +7838,7 @@
     </row>
     <row r="235" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B235" s="8">
         <v>1.9000000000000002E-10</v>
@@ -7886,10 +7847,10 @@
         <v>22</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I235" s="8">
         <v>2</v>
@@ -7926,7 +7887,7 @@
     </row>
     <row r="236" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B236" s="8">
         <v>1.3200000000000001E-5</v>
@@ -7935,10 +7896,10 @@
         <v>22</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I236" s="8">
         <v>2</v>
@@ -7975,7 +7936,7 @@
     </row>
     <row r="237" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B237" s="15">
         <v>1.31E-9</v>
@@ -7984,10 +7945,10 @@
         <v>22</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I237" s="8">
         <v>2</v>
@@ -8024,7 +7985,7 @@
     </row>
     <row r="238" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B238" s="8">
         <v>1.3200000000000001E-4</v>
@@ -8033,10 +7994,10 @@
         <v>22</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I238" s="8">
         <v>2</v>
@@ -8073,7 +8034,7 @@
     </row>
     <row r="239" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B239" s="8">
         <v>1.88E-6</v>
@@ -8082,10 +8043,10 @@
         <v>22</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I239" s="8">
         <v>2</v>
@@ -8122,7 +8083,7 @@
     </row>
     <row r="240" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B240" s="15">
         <v>7.6000000000000002E-9</v>
@@ -8131,10 +8092,10 @@
         <v>22</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I240" s="8">
         <v>2</v>
@@ -8171,7 +8132,7 @@
     </row>
     <row r="241" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B241" s="8">
         <v>1.5699999999999999E-4</v>
@@ -8180,10 +8141,10 @@
         <v>22</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I241" s="8">
         <v>2</v>
@@ -8220,7 +8181,7 @@
     </row>
     <row r="242" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B242" s="8">
         <v>7.62E-3</v>
@@ -8229,10 +8190,10 @@
         <v>22</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I242" s="8">
         <v>2</v>
@@ -8269,7 +8230,7 @@
     </row>
     <row r="243" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B243" s="15">
         <v>1.1900000000000001E-7</v>
@@ -8278,10 +8239,10 @@
         <v>22</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I243" s="8">
         <v>2</v>
@@ -8318,7 +8279,7 @@
     </row>
     <row r="244" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B244" s="8">
         <v>1.8300000000000001E-5</v>
@@ -8327,10 +8288,10 @@
         <v>22</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I244" s="8">
         <v>2</v>
@@ -8367,7 +8328,7 @@
     </row>
     <row r="245" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B245" s="8">
         <v>1.3999999999999999E-6</v>
@@ -8376,10 +8337,10 @@
         <v>22</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I245" s="8">
         <v>2</v>
@@ -8416,7 +8377,7 @@
     </row>
     <row r="246" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B246" s="8">
         <v>5.6499999999999993E-6</v>
@@ -8425,10 +8386,10 @@
         <v>22</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I246" s="8">
         <v>2</v>
@@ -8465,7 +8426,7 @@
     </row>
     <row r="247" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B247" s="15">
         <v>3.4000000000000003E-9</v>
@@ -8474,10 +8435,10 @@
         <v>22</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I247" s="8">
         <v>2</v>
@@ -8514,7 +8475,7 @@
     </row>
     <row r="248" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B248" s="15">
         <v>1.51E-9</v>
@@ -8523,10 +8484,10 @@
         <v>22</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I248" s="8">
         <v>2</v>
@@ -8563,7 +8524,7 @@
     </row>
     <row r="249" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B249" s="15">
         <v>9.9999999999999986E-10</v>
@@ -8572,10 +8533,10 @@
         <v>22</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I249" s="8">
         <v>2</v>
@@ -8612,7 +8573,7 @@
     </row>
     <row r="250" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B250" s="15">
         <v>1.0399999999999999E-7</v>
@@ -8621,10 +8582,10 @@
         <v>22</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I250" s="8">
         <v>2</v>
@@ -8661,7 +8622,7 @@
     </row>
     <row r="251" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B251" s="15">
         <v>9.0000000000000012E-8</v>
@@ -8670,10 +8631,10 @@
         <v>22</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I251" s="8">
         <v>2</v>
@@ -8710,7 +8671,7 @@
     </row>
     <row r="252" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B252" s="15">
         <v>2.2399999999999999E-7</v>
@@ -8719,10 +8680,10 @@
         <v>22</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I252" s="8">
         <v>2</v>
@@ -8759,7 +8720,7 @@
     </row>
     <row r="253" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B253" s="15">
         <v>2.9700000000000003E-7</v>
@@ -8768,10 +8729,10 @@
         <v>22</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I253" s="8">
         <v>2</v>
@@ -8808,7 +8769,7 @@
     </row>
     <row r="254" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B254" s="15">
         <v>2.7500000000000001E-5</v>
@@ -8817,10 +8778,10 @@
         <v>22</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I254" s="8">
         <v>2</v>
@@ -8857,7 +8818,7 @@
     </row>
     <row r="255" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B255" s="15">
         <v>1.9E-6</v>
@@ -8866,10 +8827,10 @@
         <v>22</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I255" s="8">
         <v>2</v>
@@ -8917,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="K257" s="9"/>
       <c r="L257" s="9"/>
@@ -8942,10 +8903,10 @@
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="260" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -8967,7 +8928,7 @@
         <v>4</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="K261" s="9"/>
       <c r="L261" s="9"/>
@@ -9009,7 +8970,7 @@
         <v>10</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K264" s="9"/>
       <c r="L264" s="9"/>
@@ -9023,7 +8984,7 @@
         <v>8</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K265" s="9"/>
       <c r="L265" s="9"/>
@@ -9072,34 +9033,34 @@
         <v>17</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K267" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L267" s="11" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M267" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N267" s="11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O267" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P267" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q267" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="R267" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S267" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T267" s="1"/>
     </row>
@@ -9135,7 +9096,7 @@
     </row>
     <row r="269" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B269" s="14">
         <v>0.2</v>
@@ -9144,13 +9105,13 @@
         <v>67</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F269" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I269" s="8">
         <v>2</v>
@@ -9197,7 +9158,7 @@
     </row>
     <row r="270" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B270" s="12">
         <v>7204.07</v>
@@ -9206,13 +9167,13 @@
         <v>42</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F270" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="I270" s="8">
         <v>2</v>
@@ -9301,7 +9262,7 @@
     </row>
     <row r="272" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B272" s="12">
         <v>106169.51</v>
@@ -9316,7 +9277,7 @@
         <v>23</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="I272" s="8">
         <v>2</v>
@@ -9353,7 +9314,7 @@
     </row>
     <row r="273" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B273" s="12">
         <v>21.5</v>
@@ -9368,7 +9329,7 @@
         <v>23</v>
       </c>
       <c r="G273" s="8" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="I273" s="8">
         <v>2</v>
@@ -9405,7 +9366,7 @@
     </row>
     <row r="274" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B274" s="17">
         <v>4.8600000000000002E-5</v>
@@ -9420,7 +9381,7 @@
         <v>23</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="I274" s="8">
         <v>2</v>
@@ -9457,7 +9418,7 @@
     </row>
     <row r="275" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B275" s="12">
         <v>4.1900000000000004</v>
@@ -9472,7 +9433,7 @@
         <v>23</v>
       </c>
       <c r="G275" s="8" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="I275" s="8">
         <v>2</v>
@@ -9509,7 +9470,7 @@
     </row>
     <row r="276" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B276" s="12">
         <v>22088.9</v>
@@ -9524,7 +9485,7 @@
         <v>23</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="I276" s="8">
         <v>2</v>
@@ -9561,7 +9522,7 @@
     </row>
     <row r="277" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="8" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B277" s="12">
         <v>69.75</v>
@@ -9576,7 +9537,7 @@
         <v>23</v>
       </c>
       <c r="G277" s="8" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="I277" s="8">
         <v>2</v>
@@ -9613,7 +9574,7 @@
     </row>
     <row r="278" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B278" s="12">
         <v>95397.05</v>
@@ -9628,7 +9589,7 @@
         <v>23</v>
       </c>
       <c r="G278" s="8" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I278" s="8">
         <v>2</v>
@@ -9665,7 +9626,7 @@
     </row>
     <row r="279" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B279" s="12">
         <v>0.36</v>
@@ -9680,7 +9641,7 @@
         <v>23</v>
       </c>
       <c r="G279" s="8" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="I279" s="8">
         <v>2</v>
@@ -9717,22 +9678,22 @@
     </row>
     <row r="280" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B280" s="8">
         <v>35266.71</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F280" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G280" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I280" s="8">
         <v>2</v>
@@ -9769,13 +9730,13 @@
     </row>
     <row r="281" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="8" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B281" s="8">
         <v>-46740.49</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D281" s="8" t="s">
         <v>22</v>
@@ -9784,7 +9745,7 @@
         <v>23</v>
       </c>
       <c r="G281" s="8" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="I281" s="8">
         <v>2</v>
@@ -9824,13 +9785,13 @@
     </row>
     <row r="282" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B282" s="8">
         <v>-21.5</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D282" s="8" t="s">
         <v>22</v>
@@ -9839,7 +9800,7 @@
         <v>23</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="I282" s="8">
         <v>2</v>
@@ -9879,19 +9840,19 @@
     </row>
     <row r="283" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B283" s="12">
         <v>10.77</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I283" s="8">
         <v>2</v>
@@ -9928,19 +9889,19 @@
     </row>
     <row r="284" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B284" s="12">
         <v>83.18</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I284" s="8">
         <v>2</v>
@@ -9977,19 +9938,19 @@
     </row>
     <row r="285" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B285" s="12">
         <v>35.46</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I285" s="8">
         <v>2</v>
@@ -10026,19 +9987,19 @@
     </row>
     <row r="286" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B286" s="12">
         <v>58.48</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I286" s="8">
         <v>2</v>
@@ -10087,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1</v>
       </c>
@@ -10098,7 +10059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>3</v>
       </c>
@@ -10106,15 +10067,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>4</v>
       </c>
       <c r="B291" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -10122,23 +10083,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>7</v>
       </c>
       <c r="B293" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>10</v>
       </c>
       <c r="B294" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -10146,12 +10107,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>13</v>
       </c>
@@ -10165,18 +10126,21 @@
         <v>1</v>
       </c>
       <c r="E297" t="s">
+        <v>16</v>
+      </c>
+      <c r="F297" t="s">
         <v>7</v>
       </c>
-      <c r="F297" t="s">
+      <c r="G297" t="s">
         <v>5</v>
       </c>
-      <c r="G297" t="s">
+      <c r="H297" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -10187,22 +10151,22 @@
       <c r="D298" t="s">
         <v>42</v>
       </c>
-      <c r="E298" t="s">
-        <v>64</v>
-      </c>
       <c r="F298" t="s">
+        <v>22</v>
+      </c>
+      <c r="G298" t="s">
         <v>19</v>
       </c>
-      <c r="G298" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A299" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B299">
-        <v>19.399999999999999</v>
+      <c r="H298" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>122</v>
+      </c>
+      <c r="B299" s="5">
+        <v>1.61E-7</v>
       </c>
       <c r="C299" t="s">
         <v>21</v>
@@ -10210,91 +10174,91 @@
       <c r="D299" t="s">
         <v>2</v>
       </c>
-      <c r="E299" t="s">
+      <c r="F299" t="s">
         <v>22</v>
       </c>
-      <c r="F299" t="s">
+      <c r="G299" t="s">
         <v>23</v>
       </c>
-      <c r="G299" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>66</v>
-      </c>
-      <c r="B300">
-        <v>-2700</v>
+      <c r="H299" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B300" s="5">
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="C300" t="s">
         <v>21</v>
       </c>
       <c r="D300" t="s">
-        <v>67</v>
-      </c>
-      <c r="E300" t="s">
+        <v>120</v>
+      </c>
+      <c r="F300" t="s">
         <v>22</v>
       </c>
-      <c r="F300" t="s">
+      <c r="G300" t="s">
         <v>23</v>
       </c>
-      <c r="G300" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H300" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>69</v>
-      </c>
-      <c r="B301">
-        <v>120000</v>
+        <v>117</v>
+      </c>
+      <c r="B301" s="5">
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="C301" t="s">
         <v>21</v>
       </c>
       <c r="D301" t="s">
-        <v>2</v>
-      </c>
-      <c r="E301" t="s">
+        <v>42</v>
+      </c>
+      <c r="F301" t="s">
         <v>22</v>
       </c>
-      <c r="F301" t="s">
+      <c r="G301" t="s">
         <v>23</v>
       </c>
-      <c r="G301" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B302">
-        <v>5340</v>
+      <c r="H301" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>126</v>
+      </c>
+      <c r="B302" s="5">
+        <v>0.16600000000000001</v>
       </c>
       <c r="C302" t="s">
         <v>21</v>
       </c>
       <c r="D302" t="s">
-        <v>2</v>
-      </c>
-      <c r="E302" t="s">
+        <v>42</v>
+      </c>
+      <c r="F302" t="s">
         <v>22</v>
       </c>
-      <c r="F302" t="s">
+      <c r="G302" t="s">
         <v>23</v>
       </c>
-      <c r="G302" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H302" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>71</v>
-      </c>
-      <c r="B303">
-        <v>0.56999999999999995</v>
+        <v>58</v>
+      </c>
+      <c r="B303" s="5">
+        <v>0.66</v>
       </c>
       <c r="C303" t="s">
         <v>21</v>
@@ -10302,575 +10266,420 @@
       <c r="D303" t="s">
         <v>42</v>
       </c>
-      <c r="E303" t="s">
+      <c r="F303" t="s">
+        <v>59</v>
+      </c>
+      <c r="G303" t="s">
+        <v>23</v>
+      </c>
+      <c r="H303" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>1</v>
+      </c>
+      <c r="B306" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>3</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B308" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>7</v>
+      </c>
+      <c r="B310" t="s">
         <v>22</v>
       </c>
-      <c r="F303" t="s">
-        <v>23</v>
-      </c>
-      <c r="G303" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>73</v>
-      </c>
-      <c r="B304">
-        <v>15.3</v>
-      </c>
-      <c r="C304" t="s">
-        <v>21</v>
-      </c>
-      <c r="D304" t="s">
-        <v>2</v>
-      </c>
-      <c r="E304" t="s">
-        <v>22</v>
-      </c>
-      <c r="F304" t="s">
-        <v>23</v>
-      </c>
-      <c r="G304" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>75</v>
-      </c>
-      <c r="B305">
-        <v>5340</v>
-      </c>
-      <c r="C305" t="s">
-        <v>21</v>
-      </c>
-      <c r="D305" t="s">
-        <v>42</v>
-      </c>
-      <c r="E305" t="s">
-        <v>22</v>
-      </c>
-      <c r="F305" t="s">
-        <v>23</v>
-      </c>
-      <c r="G305" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>76</v>
-      </c>
-      <c r="B306">
-        <v>1200</v>
-      </c>
-      <c r="C306" t="s">
-        <v>21</v>
-      </c>
-      <c r="D306" t="s">
-        <v>42</v>
-      </c>
-      <c r="E306" t="s">
-        <v>77</v>
-      </c>
-      <c r="F306" t="s">
-        <v>23</v>
-      </c>
-      <c r="G306" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>78</v>
-      </c>
-      <c r="B307">
-        <v>9000</v>
-      </c>
-      <c r="C307" t="s">
-        <v>21</v>
-      </c>
-      <c r="D307" t="s">
-        <v>42</v>
-      </c>
-      <c r="E307" t="s">
-        <v>77</v>
-      </c>
-      <c r="F307" t="s">
-        <v>23</v>
-      </c>
-      <c r="G307" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>79</v>
-      </c>
-      <c r="B308">
-        <v>118</v>
-      </c>
-      <c r="C308" t="s">
-        <v>65</v>
-      </c>
-      <c r="D308" t="s">
-        <v>42</v>
-      </c>
-      <c r="E308" t="s">
-        <v>22</v>
-      </c>
-      <c r="F308" t="s">
-        <v>23</v>
-      </c>
-      <c r="G308" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>80</v>
-      </c>
-      <c r="B309">
-        <v>1070</v>
-      </c>
-      <c r="C309" t="s">
-        <v>21</v>
-      </c>
-      <c r="D309" t="s">
-        <v>81</v>
-      </c>
-      <c r="E309" t="s">
-        <v>82</v>
-      </c>
-      <c r="F309" t="s">
-        <v>23</v>
-      </c>
-      <c r="G309" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>170</v>
-      </c>
-      <c r="B310">
-        <v>6580</v>
-      </c>
-      <c r="C310" t="s">
-        <v>21</v>
-      </c>
-      <c r="D310" t="s">
-        <v>42</v>
-      </c>
-      <c r="E310" t="s">
-        <v>82</v>
-      </c>
-      <c r="F310" t="s">
-        <v>23</v>
-      </c>
-      <c r="G310" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>58</v>
-      </c>
-      <c r="B311">
-        <f>0.6/250</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="C311" t="s">
-        <v>21</v>
-      </c>
-      <c r="D311" t="s">
-        <v>42</v>
-      </c>
-      <c r="E311" t="s">
-        <v>59</v>
-      </c>
-      <c r="F311" t="s">
-        <v>23</v>
-      </c>
-      <c r="G311" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B311" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>8</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>13</v>
+      </c>
+      <c r="B314" t="s">
+        <v>14</v>
+      </c>
+      <c r="C314" t="s">
+        <v>15</v>
+      </c>
+      <c r="D314" t="s">
         <v>1</v>
       </c>
-      <c r="B314" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>3</v>
+      <c r="E314" t="s">
+        <v>16</v>
+      </c>
+      <c r="F314" t="s">
+        <v>7</v>
+      </c>
+      <c r="G314" t="s">
+        <v>5</v>
+      </c>
+      <c r="H314" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A315" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C315" t="s">
+        <v>65</v>
+      </c>
+      <c r="D315" t="s">
+        <v>42</v>
+      </c>
+      <c r="F315" t="s">
+        <v>22</v>
+      </c>
+      <c r="G315" t="s">
+        <v>19</v>
+      </c>
+      <c r="H315" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>122</v>
+      </c>
+      <c r="B316" s="5">
+        <v>1.61E-7</v>
+      </c>
+      <c r="C316" t="s">
+        <v>21</v>
+      </c>
+      <c r="D316" t="s">
+        <v>2</v>
+      </c>
+      <c r="F316" t="s">
+        <v>22</v>
+      </c>
+      <c r="G316" t="s">
+        <v>23</v>
+      </c>
+      <c r="H316" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A317" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B317" s="5">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>21</v>
+      </c>
+      <c r="D317" t="s">
+        <v>120</v>
+      </c>
+      <c r="F317" t="s">
+        <v>22</v>
+      </c>
+      <c r="G317" t="s">
+        <v>23</v>
+      </c>
+      <c r="H317" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>117</v>
+      </c>
+      <c r="B318" s="5">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="C318" t="s">
+        <v>21</v>
+      </c>
+      <c r="D318" t="s">
+        <v>42</v>
+      </c>
+      <c r="F318" t="s">
+        <v>22</v>
+      </c>
+      <c r="G318" t="s">
+        <v>23</v>
+      </c>
+      <c r="H318" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>126</v>
+      </c>
+      <c r="B319" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C319" t="s">
+        <v>21</v>
+      </c>
+      <c r="D319" t="s">
+        <v>42</v>
+      </c>
+      <c r="F319" t="s">
+        <v>22</v>
+      </c>
+      <c r="G319" t="s">
+        <v>23</v>
+      </c>
+      <c r="H319" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>58</v>
+      </c>
+      <c r="B320" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C320" t="s">
+        <v>21</v>
+      </c>
+      <c r="D320" t="s">
+        <v>42</v>
+      </c>
+      <c r="F320" t="s">
+        <v>59</v>
+      </c>
+      <c r="G320" t="s">
+        <v>23</v>
+      </c>
+      <c r="H320" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>88</v>
+      </c>
+      <c r="B321">
+        <f>9.5*3.6</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C321" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" t="s">
+        <v>42</v>
+      </c>
+      <c r="F321" t="s">
+        <v>86</v>
+      </c>
+      <c r="G321" t="s">
+        <v>23</v>
+      </c>
+      <c r="H321" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>3</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
         <v>4</v>
       </c>
-      <c r="B316" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
+      <c r="B326" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
         <v>5</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B327" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
         <v>7</v>
       </c>
-      <c r="B318" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
+      <c r="B328" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
         <v>10</v>
       </c>
-      <c r="B319" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
+      <c r="B329" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>8</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B330" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A321" s="1" t="s">
+    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
         <v>13</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B332" t="s">
         <v>14</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C332" t="s">
         <v>15</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D332" t="s">
         <v>1</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E332" t="s">
+        <v>16</v>
+      </c>
+      <c r="F332" t="s">
         <v>7</v>
       </c>
-      <c r="F322" t="s">
+      <c r="G332" t="s">
         <v>5</v>
       </c>
-      <c r="G322" t="s">
+      <c r="H332" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A323" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B323">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>126</v>
+      </c>
+      <c r="B333" s="6">
         <v>1</v>
       </c>
-      <c r="C323" t="s">
-        <v>65</v>
-      </c>
-      <c r="D323" t="s">
-        <v>42</v>
-      </c>
-      <c r="E323" t="s">
-        <v>64</v>
-      </c>
-      <c r="F323" t="s">
-        <v>19</v>
-      </c>
-      <c r="G323" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A324" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B324">
-        <v>64.8</v>
-      </c>
-      <c r="C324" t="s">
+      <c r="C333" t="s">
         <v>21</v>
-      </c>
-      <c r="D324" t="s">
-        <v>2</v>
-      </c>
-      <c r="E324" t="s">
-        <v>22</v>
-      </c>
-      <c r="F324" t="s">
-        <v>23</v>
-      </c>
-      <c r="G324" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>66</v>
-      </c>
-      <c r="B325">
-        <v>-10900</v>
-      </c>
-      <c r="C325" t="s">
-        <v>21</v>
-      </c>
-      <c r="D325" t="s">
-        <v>67</v>
-      </c>
-      <c r="E325" t="s">
-        <v>22</v>
-      </c>
-      <c r="F325" t="s">
-        <v>23</v>
-      </c>
-      <c r="G325" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>69</v>
-      </c>
-      <c r="B326">
-        <v>225000</v>
-      </c>
-      <c r="C326" t="s">
-        <v>21</v>
-      </c>
-      <c r="D326" t="s">
-        <v>2</v>
-      </c>
-      <c r="E326" t="s">
-        <v>22</v>
-      </c>
-      <c r="F326" t="s">
-        <v>23</v>
-      </c>
-      <c r="G326" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A327" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B327">
-        <v>21800</v>
-      </c>
-      <c r="C327" t="s">
-        <v>21</v>
-      </c>
-      <c r="D327" t="s">
-        <v>2</v>
-      </c>
-      <c r="E327" t="s">
-        <v>22</v>
-      </c>
-      <c r="F327" t="s">
-        <v>23</v>
-      </c>
-      <c r="G327" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>71</v>
-      </c>
-      <c r="B328">
-        <v>1.9</v>
-      </c>
-      <c r="C328" t="s">
-        <v>21</v>
-      </c>
-      <c r="D328" t="s">
-        <v>42</v>
-      </c>
-      <c r="E328" t="s">
-        <v>22</v>
-      </c>
-      <c r="F328" t="s">
-        <v>23</v>
-      </c>
-      <c r="G328" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>73</v>
-      </c>
-      <c r="B329">
-        <v>51.1</v>
-      </c>
-      <c r="C329" t="s">
-        <v>21</v>
-      </c>
-      <c r="D329" t="s">
-        <v>2</v>
-      </c>
-      <c r="E329" t="s">
-        <v>22</v>
-      </c>
-      <c r="F329" t="s">
-        <v>23</v>
-      </c>
-      <c r="G329" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>75</v>
-      </c>
-      <c r="B330">
-        <v>21800</v>
-      </c>
-      <c r="C330" t="s">
-        <v>21</v>
-      </c>
-      <c r="D330" t="s">
-        <v>42</v>
-      </c>
-      <c r="E330" t="s">
-        <v>22</v>
-      </c>
-      <c r="F330" t="s">
-        <v>23</v>
-      </c>
-      <c r="G330" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>76</v>
-      </c>
-      <c r="B331">
-        <v>1200</v>
-      </c>
-      <c r="C331" t="s">
-        <v>21</v>
-      </c>
-      <c r="D331" t="s">
-        <v>42</v>
-      </c>
-      <c r="E331" t="s">
-        <v>77</v>
-      </c>
-      <c r="F331" t="s">
-        <v>23</v>
-      </c>
-      <c r="G331" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>78</v>
-      </c>
-      <c r="B332">
-        <v>9000</v>
-      </c>
-      <c r="C332" t="s">
-        <v>21</v>
-      </c>
-      <c r="D332" t="s">
-        <v>42</v>
-      </c>
-      <c r="E332" t="s">
-        <v>77</v>
-      </c>
-      <c r="F332" t="s">
-        <v>23</v>
-      </c>
-      <c r="G332" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>79</v>
-      </c>
-      <c r="B333">
-        <v>35</v>
-      </c>
-      <c r="C333" t="s">
-        <v>65</v>
       </c>
       <c r="D333" t="s">
         <v>42</v>
       </c>
-      <c r="E333" t="s">
+      <c r="F333" t="s">
         <v>22</v>
       </c>
-      <c r="F333" t="s">
-        <v>23</v>
-      </c>
       <c r="G333" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="H333" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="B334">
-        <v>13600</v>
+        <v>1.2</v>
       </c>
       <c r="C334" t="s">
         <v>21</v>
       </c>
       <c r="D334" t="s">
-        <v>81</v>
-      </c>
-      <c r="E334" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F334" t="s">
+        <v>22</v>
+      </c>
+      <c r="G334" t="s">
         <v>23</v>
       </c>
-      <c r="G334" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H334" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B335">
-        <v>4390</v>
+        <v>1.03</v>
       </c>
       <c r="C335" t="s">
         <v>21</v>
@@ -10878,23 +10687,22 @@
       <c r="D335" t="s">
         <v>42</v>
       </c>
-      <c r="E335" t="s">
-        <v>82</v>
-      </c>
       <c r="F335" t="s">
+        <v>22</v>
+      </c>
+      <c r="G335" t="s">
         <v>23</v>
       </c>
-      <c r="G335" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H335" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B336">
-        <f>0.6/250</f>
-        <v>2.3999999999999998E-3</v>
+        <v>0.26</v>
       </c>
       <c r="C336" t="s">
         <v>21</v>
@@ -10902,209 +10710,209 @@
       <c r="D336" t="s">
         <v>42</v>
       </c>
-      <c r="E336" t="s">
+      <c r="F336" t="s">
+        <v>22</v>
+      </c>
+      <c r="G336" t="s">
+        <v>23</v>
+      </c>
+      <c r="H336" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>135</v>
+      </c>
+      <c r="B337" s="5">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C337" t="s">
+        <v>21</v>
+      </c>
+      <c r="D337" t="s">
+        <v>2</v>
+      </c>
+      <c r="F337" t="s">
+        <v>22</v>
+      </c>
+      <c r="G337" t="s">
+        <v>23</v>
+      </c>
+      <c r="H337" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>58</v>
+      </c>
+      <c r="B338">
+        <v>42.1</v>
+      </c>
+      <c r="C338" t="s">
+        <v>21</v>
+      </c>
+      <c r="D338" t="s">
+        <v>42</v>
+      </c>
+      <c r="F338" t="s">
         <v>59</v>
       </c>
-      <c r="F336" t="s">
+      <c r="G338" t="s">
         <v>23</v>
       </c>
-      <c r="G336" t="s">
+      <c r="H338" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A338" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>1</v>
-      </c>
-      <c r="B339" t="s">
+    <row r="339" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A339" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B339">
+        <v>2.7</v>
+      </c>
+      <c r="C339" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339" t="s">
         <v>42</v>
+      </c>
+      <c r="F339" t="s">
+        <v>86</v>
+      </c>
+      <c r="G339" t="s">
+        <v>23</v>
+      </c>
+      <c r="H339" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="B340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>4</v>
-      </c>
-      <c r="B341" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>5</v>
-      </c>
-      <c r="B342" t="s">
-        <v>6</v>
+        <v>0.2</v>
+      </c>
+      <c r="C340" t="s">
+        <v>21</v>
+      </c>
+      <c r="D340" t="s">
+        <v>42</v>
+      </c>
+      <c r="F340" t="s">
+        <v>76</v>
+      </c>
+      <c r="G340" t="s">
+        <v>23</v>
+      </c>
+      <c r="H340" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B343" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>10</v>
-      </c>
-      <c r="B344" t="s">
-        <v>122</v>
+        <v>3</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B345" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A346" s="1" t="s">
-        <v>12</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>5</v>
+      </c>
+      <c r="B346" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B347" t="s">
-        <v>14</v>
-      </c>
-      <c r="C347" t="s">
-        <v>15</v>
-      </c>
-      <c r="D347" t="s">
-        <v>1</v>
-      </c>
-      <c r="E347" t="s">
-        <v>16</v>
-      </c>
-      <c r="F347" t="s">
-        <v>7</v>
-      </c>
-      <c r="G347" t="s">
-        <v>5</v>
-      </c>
-      <c r="H347" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A348" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B348">
-        <v>1</v>
-      </c>
-      <c r="C348" t="s">
-        <v>65</v>
-      </c>
-      <c r="D348" t="s">
-        <v>42</v>
-      </c>
-      <c r="F348" t="s">
         <v>22</v>
       </c>
-      <c r="G348" t="s">
-        <v>19</v>
-      </c>
-      <c r="H348" t="s">
-        <v>121</v>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>128</v>
-      </c>
-      <c r="B349" s="5">
-        <v>1.61E-7</v>
-      </c>
-      <c r="C349" t="s">
-        <v>21</v>
-      </c>
-      <c r="D349" t="s">
-        <v>2</v>
-      </c>
-      <c r="F349" t="s">
-        <v>22</v>
-      </c>
-      <c r="G349" t="s">
-        <v>23</v>
-      </c>
-      <c r="H349" t="s">
-        <v>129</v>
+        <v>8</v>
+      </c>
+      <c r="B349" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A350" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B350" s="5">
-        <v>3.1999999999999999E-5</v>
-      </c>
-      <c r="C350" t="s">
-        <v>21</v>
-      </c>
-      <c r="D350" t="s">
-        <v>126</v>
-      </c>
-      <c r="F350" t="s">
-        <v>22</v>
-      </c>
-      <c r="G350" t="s">
-        <v>23</v>
-      </c>
-      <c r="H350" t="s">
-        <v>127</v>
+      <c r="A350" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>123</v>
-      </c>
-      <c r="B351" s="5">
-        <v>3.2000000000000003E-4</v>
+        <v>13</v>
+      </c>
+      <c r="B351" t="s">
+        <v>14</v>
       </c>
       <c r="C351" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D351" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="E351" t="s">
+        <v>16</v>
       </c>
       <c r="F351" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G351" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H351" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>132</v>
-      </c>
-      <c r="B352" s="5">
-        <v>0.16600000000000001</v>
+        <v>140</v>
+      </c>
+      <c r="B352" s="6">
+        <v>1</v>
       </c>
       <c r="C352" t="s">
         <v>21</v>
@@ -11116,18 +10924,18 @@
         <v>22</v>
       </c>
       <c r="G352" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H352" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>58</v>
       </c>
-      <c r="B353" s="5">
-        <v>0.66</v>
+      <c r="B353">
+        <v>9.375E-2</v>
       </c>
       <c r="C353" t="s">
         <v>21</v>
@@ -11145,176 +10953,176 @@
         <v>60</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A355" s="1" t="s">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>137</v>
+      </c>
+      <c r="B354">
+        <v>31.25</v>
+      </c>
+      <c r="C354" t="s">
+        <v>21</v>
+      </c>
+      <c r="D354" t="s">
+        <v>75</v>
+      </c>
+      <c r="F354" t="s">
+        <v>22</v>
+      </c>
+      <c r="G354" t="s">
+        <v>23</v>
+      </c>
+      <c r="H354" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>1</v>
-      </c>
-      <c r="B356" t="s">
-        <v>42</v>
+      <c r="B356" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>3</v>
-      </c>
-      <c r="B357">
         <v>1</v>
+      </c>
+      <c r="B357" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>4</v>
-      </c>
-      <c r="B358" t="s">
-        <v>131</v>
+        <v>3</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B359" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B360" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B361" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
         <v>8</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B363" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A363" s="1" t="s">
+    <row r="364" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
         <v>13</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B365" t="s">
         <v>14</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C365" t="s">
         <v>15</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D365" t="s">
         <v>1</v>
       </c>
-      <c r="E364" t="s">
+      <c r="E365" t="s">
         <v>16</v>
       </c>
-      <c r="F364" t="s">
+      <c r="F365" t="s">
         <v>7</v>
       </c>
-      <c r="G364" t="s">
+      <c r="G365" t="s">
         <v>5</v>
       </c>
-      <c r="H364" t="s">
+      <c r="H365" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A365" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B365">
-        <v>1</v>
-      </c>
-      <c r="C365" t="s">
-        <v>65</v>
-      </c>
-      <c r="D365" t="s">
-        <v>42</v>
-      </c>
-      <c r="F365" t="s">
-        <v>22</v>
-      </c>
-      <c r="G365" t="s">
-        <v>19</v>
-      </c>
-      <c r="H365" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>128</v>
-      </c>
-      <c r="B366" s="5">
-        <v>1.61E-7</v>
+        <v>141</v>
+      </c>
+      <c r="B366" s="6">
+        <v>1</v>
       </c>
       <c r="C366" t="s">
         <v>21</v>
       </c>
       <c r="D366" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F366" t="s">
         <v>22</v>
       </c>
       <c r="G366" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H366" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A367" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B367" s="5">
-        <v>3.1999999999999999E-5</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>58</v>
+      </c>
+      <c r="B367">
+        <v>0.34399999999999997</v>
       </c>
       <c r="C367" t="s">
         <v>21</v>
       </c>
       <c r="D367" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F367" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G367" t="s">
         <v>23</v>
       </c>
       <c r="H367" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>123</v>
-      </c>
-      <c r="B368" s="5">
-        <v>3.2000000000000003E-4</v>
+        <v>140</v>
+      </c>
+      <c r="B368" s="6">
+        <v>1</v>
       </c>
       <c r="C368" t="s">
         <v>21</v>
@@ -11329,1130 +11137,175 @@
         <v>23</v>
       </c>
       <c r="H368" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
-        <v>132</v>
-      </c>
-      <c r="B369" s="5">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="C369" t="s">
-        <v>21</v>
-      </c>
-      <c r="D369" t="s">
-        <v>42</v>
-      </c>
-      <c r="F369" t="s">
-        <v>22</v>
-      </c>
-      <c r="G369" t="s">
-        <v>23</v>
-      </c>
-      <c r="H369" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
-        <v>58</v>
-      </c>
-      <c r="B370" s="5">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C370" t="s">
-        <v>21</v>
-      </c>
-      <c r="D370" t="s">
-        <v>42</v>
-      </c>
-      <c r="F370" t="s">
-        <v>59</v>
-      </c>
-      <c r="G370" t="s">
-        <v>23</v>
-      </c>
-      <c r="H370" t="s">
-        <v>60</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>94</v>
-      </c>
-      <c r="B371">
-        <f>9.5*3.6</f>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="C371" t="s">
-        <v>21</v>
-      </c>
-      <c r="D371" t="s">
+        <v>1</v>
+      </c>
+      <c r="B371" t="s">
         <v>42</v>
       </c>
-      <c r="F371" t="s">
-        <v>92</v>
-      </c>
-      <c r="G371" t="s">
-        <v>23</v>
-      </c>
-      <c r="H371" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A373" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>132</v>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>3</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B373" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B374" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>3</v>
-      </c>
-      <c r="B375">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B375" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B376" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B377" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>7</v>
-      </c>
-      <c r="B378" t="s">
-        <v>22</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B379" t="s">
-        <v>122</v>
+        <v>14</v>
+      </c>
+      <c r="C379" t="s">
+        <v>15</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1</v>
+      </c>
+      <c r="E379" t="s">
+        <v>16</v>
+      </c>
+      <c r="F379" t="s">
+        <v>7</v>
+      </c>
+      <c r="G379" t="s">
+        <v>5</v>
+      </c>
+      <c r="H379" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>8</v>
-      </c>
-      <c r="B380" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A381" s="1" t="s">
-        <v>12</v>
+        <v>144</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380" t="s">
+        <v>65</v>
+      </c>
+      <c r="D380" t="s">
+        <v>42</v>
+      </c>
+      <c r="F380" t="s">
+        <v>22</v>
+      </c>
+      <c r="G380" t="s">
+        <v>19</v>
+      </c>
+      <c r="H380" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>58</v>
+      </c>
+      <c r="B381">
+        <v>2.46</v>
+      </c>
+      <c r="C381" t="s">
+        <v>21</v>
+      </c>
+      <c r="D381" t="s">
+        <v>42</v>
+      </c>
+      <c r="F381" t="s">
+        <v>59</v>
+      </c>
+      <c r="G381" t="s">
+        <v>23</v>
+      </c>
+      <c r="H381" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>13</v>
-      </c>
-      <c r="B382" t="s">
-        <v>14</v>
+        <v>147</v>
+      </c>
+      <c r="B382">
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="C382" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D382" t="s">
-        <v>1</v>
-      </c>
-      <c r="E382" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F382" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G382" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H382" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>132</v>
-      </c>
-      <c r="B383" s="6">
-        <v>1</v>
-      </c>
-      <c r="C383" t="s">
-        <v>21</v>
-      </c>
-      <c r="D383" t="s">
-        <v>42</v>
-      </c>
-      <c r="F383" t="s">
-        <v>22</v>
-      </c>
-      <c r="G383" t="s">
-        <v>19</v>
-      </c>
-      <c r="H383" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>134</v>
-      </c>
-      <c r="B384">
-        <v>1.2</v>
-      </c>
-      <c r="C384" t="s">
-        <v>21</v>
-      </c>
-      <c r="D384" t="s">
-        <v>67</v>
-      </c>
-      <c r="F384" t="s">
-        <v>22</v>
-      </c>
-      <c r="G384" t="s">
-        <v>23</v>
-      </c>
-      <c r="H384" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>136</v>
-      </c>
-      <c r="B385">
-        <v>1.03</v>
-      </c>
-      <c r="C385" t="s">
-        <v>21</v>
-      </c>
-      <c r="D385" t="s">
-        <v>42</v>
-      </c>
-      <c r="F385" t="s">
-        <v>22</v>
-      </c>
-      <c r="G385" t="s">
-        <v>23</v>
-      </c>
-      <c r="H385" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>138</v>
-      </c>
-      <c r="B386">
-        <v>0.26</v>
-      </c>
-      <c r="C386" t="s">
-        <v>21</v>
-      </c>
-      <c r="D386" t="s">
-        <v>42</v>
-      </c>
-      <c r="F386" t="s">
-        <v>22</v>
-      </c>
-      <c r="G386" t="s">
-        <v>23</v>
-      </c>
-      <c r="H386" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>141</v>
-      </c>
-      <c r="B387" s="5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C387" t="s">
-        <v>21</v>
-      </c>
-      <c r="D387" t="s">
-        <v>2</v>
-      </c>
-      <c r="F387" t="s">
-        <v>22</v>
-      </c>
-      <c r="G387" t="s">
-        <v>23</v>
-      </c>
-      <c r="H387" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>58</v>
-      </c>
-      <c r="B388">
-        <v>42.1</v>
-      </c>
-      <c r="C388" t="s">
-        <v>21</v>
-      </c>
-      <c r="D388" t="s">
-        <v>42</v>
-      </c>
-      <c r="F388" t="s">
-        <v>59</v>
-      </c>
-      <c r="G388" t="s">
-        <v>23</v>
-      </c>
-      <c r="H388" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A389" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B389">
-        <v>2.7</v>
-      </c>
-      <c r="C389" t="s">
-        <v>21</v>
-      </c>
-      <c r="D389" t="s">
-        <v>42</v>
-      </c>
-      <c r="F389" t="s">
-        <v>92</v>
-      </c>
-      <c r="G389" t="s">
-        <v>23</v>
-      </c>
-      <c r="H389" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>170</v>
-      </c>
-      <c r="B390">
-        <v>0.2</v>
-      </c>
-      <c r="C390" t="s">
-        <v>21</v>
-      </c>
-      <c r="D390" t="s">
-        <v>42</v>
-      </c>
-      <c r="F390" t="s">
-        <v>82</v>
-      </c>
-      <c r="G390" t="s">
-        <v>23</v>
-      </c>
-      <c r="H390" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A392" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>1</v>
-      </c>
-      <c r="B393" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>3</v>
-      </c>
-      <c r="B394">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>4</v>
-      </c>
-      <c r="B395" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
-        <v>5</v>
-      </c>
-      <c r="B396" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>7</v>
-      </c>
-      <c r="B397" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>10</v>
-      </c>
-      <c r="B398" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>8</v>
-      </c>
-      <c r="B399" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A400" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>13</v>
-      </c>
-      <c r="B401" t="s">
-        <v>14</v>
-      </c>
-      <c r="C401" t="s">
-        <v>15</v>
-      </c>
-      <c r="D401" t="s">
-        <v>1</v>
-      </c>
-      <c r="E401" t="s">
-        <v>16</v>
-      </c>
-      <c r="F401" t="s">
-        <v>7</v>
-      </c>
-      <c r="G401" t="s">
-        <v>5</v>
-      </c>
-      <c r="H401" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>146</v>
-      </c>
-      <c r="B402" s="6">
-        <v>1</v>
-      </c>
-      <c r="C402" t="s">
-        <v>21</v>
-      </c>
-      <c r="D402" t="s">
-        <v>42</v>
-      </c>
-      <c r="F402" t="s">
-        <v>22</v>
-      </c>
-      <c r="G402" t="s">
-        <v>19</v>
-      </c>
-      <c r="H402" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
-        <v>58</v>
-      </c>
-      <c r="B403">
-        <v>9.375E-2</v>
-      </c>
-      <c r="C403" t="s">
-        <v>21</v>
-      </c>
-      <c r="D403" t="s">
-        <v>42</v>
-      </c>
-      <c r="F403" t="s">
-        <v>59</v>
-      </c>
-      <c r="G403" t="s">
-        <v>23</v>
-      </c>
-      <c r="H403" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>143</v>
-      </c>
-      <c r="B404">
-        <v>31.25</v>
-      </c>
-      <c r="C404" t="s">
-        <v>21</v>
-      </c>
-      <c r="D404" t="s">
-        <v>81</v>
-      </c>
-      <c r="F404" t="s">
-        <v>22</v>
-      </c>
-      <c r="G404" t="s">
-        <v>23</v>
-      </c>
-      <c r="H404" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A406" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>1</v>
-      </c>
-      <c r="B407" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>3</v>
-      </c>
-      <c r="B408">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>4</v>
-      </c>
-      <c r="B409" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
-        <v>5</v>
-      </c>
-      <c r="B410" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
-        <v>7</v>
-      </c>
-      <c r="B411" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
-        <v>10</v>
-      </c>
-      <c r="B412" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
-        <v>8</v>
-      </c>
-      <c r="B413" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A414" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>13</v>
-      </c>
-      <c r="B415" t="s">
-        <v>14</v>
-      </c>
-      <c r="C415" t="s">
-        <v>15</v>
-      </c>
-      <c r="D415" t="s">
-        <v>1</v>
-      </c>
-      <c r="E415" t="s">
-        <v>16</v>
-      </c>
-      <c r="F415" t="s">
-        <v>7</v>
-      </c>
-      <c r="G415" t="s">
-        <v>5</v>
-      </c>
-      <c r="H415" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>147</v>
-      </c>
-      <c r="B416" s="6">
-        <v>1</v>
-      </c>
-      <c r="C416" t="s">
-        <v>21</v>
-      </c>
-      <c r="D416" t="s">
-        <v>42</v>
-      </c>
-      <c r="F416" t="s">
-        <v>22</v>
-      </c>
-      <c r="G416" t="s">
-        <v>19</v>
-      </c>
-      <c r="H416" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>58</v>
-      </c>
-      <c r="B417">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C417" t="s">
-        <v>21</v>
-      </c>
-      <c r="D417" t="s">
-        <v>42</v>
-      </c>
-      <c r="F417" t="s">
-        <v>59</v>
-      </c>
-      <c r="G417" t="s">
-        <v>23</v>
-      </c>
-      <c r="H417" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>146</v>
-      </c>
-      <c r="B418" s="6">
-        <v>1</v>
-      </c>
-      <c r="C418" t="s">
-        <v>21</v>
-      </c>
-      <c r="D418" t="s">
-        <v>42</v>
-      </c>
-      <c r="F418" t="s">
-        <v>22</v>
-      </c>
-      <c r="G418" t="s">
-        <v>23</v>
-      </c>
-      <c r="H418" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A420" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
-        <v>1</v>
-      </c>
-      <c r="B421" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
-        <v>3</v>
-      </c>
-      <c r="B422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
-        <v>4</v>
-      </c>
-      <c r="B423" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
-        <v>5</v>
-      </c>
-      <c r="B424" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>7</v>
-      </c>
-      <c r="B425" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>10</v>
-      </c>
-      <c r="B426" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>8</v>
-      </c>
-      <c r="B427" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A428" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
-        <v>13</v>
-      </c>
-      <c r="B429" t="s">
-        <v>14</v>
-      </c>
-      <c r="C429" t="s">
-        <v>15</v>
-      </c>
-      <c r="D429" t="s">
-        <v>1</v>
-      </c>
-      <c r="E429" t="s">
-        <v>16</v>
-      </c>
-      <c r="F429" t="s">
-        <v>7</v>
-      </c>
-      <c r="G429" t="s">
-        <v>5</v>
-      </c>
-      <c r="H429" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
-        <v>150</v>
-      </c>
-      <c r="B430">
-        <v>1</v>
-      </c>
-      <c r="C430" t="s">
-        <v>65</v>
-      </c>
-      <c r="D430" t="s">
-        <v>42</v>
-      </c>
-      <c r="F430" t="s">
-        <v>22</v>
-      </c>
-      <c r="G430" t="s">
-        <v>19</v>
-      </c>
-      <c r="H430" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
-        <v>58</v>
-      </c>
-      <c r="B431">
-        <v>2.46</v>
-      </c>
-      <c r="C431" t="s">
-        <v>21</v>
-      </c>
-      <c r="D431" t="s">
-        <v>42</v>
-      </c>
-      <c r="F431" t="s">
-        <v>59</v>
-      </c>
-      <c r="G431" t="s">
-        <v>23</v>
-      </c>
-      <c r="H431" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>154</v>
-      </c>
-      <c r="B432">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="C432" t="s">
-        <v>21</v>
-      </c>
-      <c r="D432" t="s">
-        <v>42</v>
-      </c>
-      <c r="F432" t="s">
-        <v>22</v>
-      </c>
-      <c r="G432" t="s">
-        <v>23</v>
-      </c>
-      <c r="H432" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A434" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>1</v>
-      </c>
-      <c r="B435" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>3</v>
-      </c>
-      <c r="B436">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
-        <v>4</v>
-      </c>
-      <c r="B437" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
-        <v>5</v>
-      </c>
-      <c r="B438" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
-        <v>7</v>
-      </c>
-      <c r="B439" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
-        <v>10</v>
-      </c>
-      <c r="B440" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
-        <v>8</v>
-      </c>
-      <c r="B441" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A442" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
-        <v>13</v>
-      </c>
-      <c r="B443" t="s">
-        <v>14</v>
-      </c>
-      <c r="C443" t="s">
-        <v>15</v>
-      </c>
-      <c r="D443" t="s">
-        <v>1</v>
-      </c>
-      <c r="E443" t="s">
-        <v>7</v>
-      </c>
-      <c r="F443" t="s">
-        <v>5</v>
-      </c>
-      <c r="G443" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A444" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B444">
-        <v>1</v>
-      </c>
-      <c r="C444" t="s">
-        <v>65</v>
-      </c>
-      <c r="D444" t="s">
-        <v>42</v>
-      </c>
-      <c r="E444" t="s">
-        <v>64</v>
-      </c>
-      <c r="F444" t="s">
-        <v>19</v>
-      </c>
-      <c r="G444" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
-        <v>58</v>
-      </c>
-      <c r="B445">
-        <f>0.6/250</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="C445" t="s">
-        <v>21</v>
-      </c>
-      <c r="D445" t="s">
-        <v>42</v>
-      </c>
-      <c r="E445" t="s">
-        <v>59</v>
-      </c>
-      <c r="F445" t="s">
-        <v>23</v>
-      </c>
-      <c r="G445" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A447" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
-        <v>1</v>
-      </c>
-      <c r="B448" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
-        <v>3</v>
-      </c>
-      <c r="B449">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>4</v>
-      </c>
-      <c r="B450" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>5</v>
-      </c>
-      <c r="B451" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
-        <v>7</v>
-      </c>
-      <c r="B452" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>10</v>
-      </c>
-      <c r="B453" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>8</v>
-      </c>
-      <c r="B454" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A455" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
-        <v>13</v>
-      </c>
-      <c r="B456" t="s">
-        <v>14</v>
-      </c>
-      <c r="C456" t="s">
-        <v>15</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1</v>
-      </c>
-      <c r="E456" t="s">
-        <v>7</v>
-      </c>
-      <c r="F456" t="s">
-        <v>5</v>
-      </c>
-      <c r="G456" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A457" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B457">
-        <v>1</v>
-      </c>
-      <c r="C457" t="s">
-        <v>65</v>
-      </c>
-      <c r="D457" t="s">
-        <v>42</v>
-      </c>
-      <c r="E457" t="s">
-        <v>64</v>
-      </c>
-      <c r="F457" t="s">
-        <v>19</v>
-      </c>
-      <c r="G457" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
-        <v>58</v>
-      </c>
-      <c r="B458">
-        <f>0.6/250</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="C458" t="s">
-        <v>21</v>
-      </c>
-      <c r="D458" t="s">
-        <v>42</v>
-      </c>
-      <c r="E458" t="s">
-        <v>59</v>
-      </c>
-      <c r="F458" t="s">
-        <v>23</v>
-      </c>
-      <c r="G458" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I458" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I383" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise_transport/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3FAA1F-1CD8-FA43-8809-8E082AF0BC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C19E01-C58B-FF41-9C6F-E9409D0A8FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1600" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="281">
   <si>
     <t>Activity</t>
   </si>
@@ -850,6 +850,66 @@
   </si>
   <si>
     <t>soda ash, light, crystalline, heptahydrate</t>
+  </si>
+  <si>
+    <t>Fuel tank, compressed hydrogen gas, 700bar, with aluminium liner</t>
+  </si>
+  <si>
+    <t>Hydrogen tank</t>
+  </si>
+  <si>
+    <t>worksheet name</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Evangelisti et al. 2017, doi: 10.1016/j.jclepro.2016.11.159</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>An aluminium lined hydrogen tank (Type III), weighting 93 kg per unit.</t>
+  </si>
+  <si>
+    <t>special remark</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>lci-pass_cars</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>energy storage</t>
+  </si>
+  <si>
+    <t>epoxy resin production, liquid</t>
+  </si>
+  <si>
+    <t>market for glass fibre</t>
+  </si>
+  <si>
+    <t>glass fibre</t>
+  </si>
+  <si>
+    <t>market for polyurethane, flexible foam</t>
+  </si>
+  <si>
+    <t>polyurethane, flexible foam</t>
+  </si>
+  <si>
+    <t>ENTSO-E</t>
+  </si>
+  <si>
+    <t>energy chain</t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T382"/>
+  <dimension ref="A1:T406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="L398" sqref="L398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11304,6 +11364,418 @@
         <v>148</v>
       </c>
     </row>
+    <row r="384" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>1</v>
+      </c>
+      <c r="B385" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>3</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B387" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>5</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>7</v>
+      </c>
+      <c r="B389" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>263</v>
+      </c>
+      <c r="B390" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>8</v>
+      </c>
+      <c r="B391" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>266</v>
+      </c>
+      <c r="B392" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>268</v>
+      </c>
+      <c r="B393" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>13</v>
+      </c>
+      <c r="B396" t="s">
+        <v>14</v>
+      </c>
+      <c r="C396" t="s">
+        <v>15</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1</v>
+      </c>
+      <c r="E396" t="s">
+        <v>7</v>
+      </c>
+      <c r="F396" t="s">
+        <v>16</v>
+      </c>
+      <c r="G396" t="s">
+        <v>5</v>
+      </c>
+      <c r="H396" t="s">
+        <v>4</v>
+      </c>
+      <c r="I396" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>160</v>
+      </c>
+      <c r="B397">
+        <v>0.21368817200000001</v>
+      </c>
+      <c r="C397" t="s">
+        <v>271</v>
+      </c>
+      <c r="D397" t="s">
+        <v>42</v>
+      </c>
+      <c r="E397" t="s">
+        <v>22</v>
+      </c>
+      <c r="F397" t="s">
+        <v>269</v>
+      </c>
+      <c r="G397" t="s">
+        <v>23</v>
+      </c>
+      <c r="H397" t="s">
+        <v>159</v>
+      </c>
+      <c r="I397" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>261</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398" t="s">
+        <v>271</v>
+      </c>
+      <c r="D398" t="s">
+        <v>42</v>
+      </c>
+      <c r="E398" t="s">
+        <v>22</v>
+      </c>
+      <c r="F398" t="s">
+        <v>269</v>
+      </c>
+      <c r="G398" t="s">
+        <v>19</v>
+      </c>
+      <c r="H398" t="s">
+        <v>262</v>
+      </c>
+      <c r="I398" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>274</v>
+      </c>
+      <c r="B399">
+        <v>0.31989247300000001</v>
+      </c>
+      <c r="C399" t="s">
+        <v>271</v>
+      </c>
+      <c r="D399" t="s">
+        <v>42</v>
+      </c>
+      <c r="E399" t="s">
+        <v>22</v>
+      </c>
+      <c r="F399" t="s">
+        <v>269</v>
+      </c>
+      <c r="G399" t="s">
+        <v>23</v>
+      </c>
+      <c r="H399" t="s">
+        <v>57</v>
+      </c>
+      <c r="I399" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>37</v>
+      </c>
+      <c r="B400">
+        <v>0.45936559100000002</v>
+      </c>
+      <c r="C400" t="s">
+        <v>271</v>
+      </c>
+      <c r="D400" t="s">
+        <v>2</v>
+      </c>
+      <c r="E400" t="s">
+        <v>22</v>
+      </c>
+      <c r="F400" t="s">
+        <v>269</v>
+      </c>
+      <c r="G400" t="s">
+        <v>23</v>
+      </c>
+      <c r="H400" t="s">
+        <v>38</v>
+      </c>
+      <c r="I400" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>275</v>
+      </c>
+      <c r="B401">
+        <v>6.0139785000000001E-2</v>
+      </c>
+      <c r="C401" t="s">
+        <v>271</v>
+      </c>
+      <c r="D401" t="s">
+        <v>2</v>
+      </c>
+      <c r="E401" t="s">
+        <v>22</v>
+      </c>
+      <c r="F401" t="s">
+        <v>269</v>
+      </c>
+      <c r="G401" t="s">
+        <v>23</v>
+      </c>
+      <c r="H401" t="s">
+        <v>276</v>
+      </c>
+      <c r="I401" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>277</v>
+      </c>
+      <c r="B402">
+        <v>4.9903226000000002E-2</v>
+      </c>
+      <c r="C402" t="s">
+        <v>271</v>
+      </c>
+      <c r="D402" t="s">
+        <v>42</v>
+      </c>
+      <c r="E402" t="s">
+        <v>22</v>
+      </c>
+      <c r="F402" t="s">
+        <v>269</v>
+      </c>
+      <c r="G402" t="s">
+        <v>23</v>
+      </c>
+      <c r="H402" t="s">
+        <v>278</v>
+      </c>
+      <c r="I402" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>52</v>
+      </c>
+      <c r="B403">
+        <v>0.38387096799999998</v>
+      </c>
+      <c r="C403" t="s">
+        <v>271</v>
+      </c>
+      <c r="D403" t="s">
+        <v>2</v>
+      </c>
+      <c r="E403" t="s">
+        <v>22</v>
+      </c>
+      <c r="F403" t="s">
+        <v>269</v>
+      </c>
+      <c r="G403" t="s">
+        <v>23</v>
+      </c>
+      <c r="H403" t="s">
+        <v>53</v>
+      </c>
+      <c r="I403" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>27</v>
+      </c>
+      <c r="B404">
+        <v>0.11388172000000001</v>
+      </c>
+      <c r="C404" t="s">
+        <v>271</v>
+      </c>
+      <c r="D404" t="s">
+        <v>2</v>
+      </c>
+      <c r="E404" t="s">
+        <v>22</v>
+      </c>
+      <c r="F404" t="s">
+        <v>269</v>
+      </c>
+      <c r="G404" t="s">
+        <v>23</v>
+      </c>
+      <c r="H404" t="s">
+        <v>28</v>
+      </c>
+      <c r="I404" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>58</v>
+      </c>
+      <c r="B405">
+        <v>0.17658064500000001</v>
+      </c>
+      <c r="C405" t="s">
+        <v>271</v>
+      </c>
+      <c r="D405" t="s">
+        <v>279</v>
+      </c>
+      <c r="E405" t="s">
+        <v>59</v>
+      </c>
+      <c r="F405" t="s">
+        <v>269</v>
+      </c>
+      <c r="G405" t="s">
+        <v>23</v>
+      </c>
+      <c r="H405" t="s">
+        <v>60</v>
+      </c>
+      <c r="I405" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>30</v>
+      </c>
+      <c r="B406">
+        <v>0.11388172000000001</v>
+      </c>
+      <c r="C406" t="s">
+        <v>271</v>
+      </c>
+      <c r="D406" t="s">
+        <v>42</v>
+      </c>
+      <c r="E406" t="s">
+        <v>22</v>
+      </c>
+      <c r="F406" t="s">
+        <v>269</v>
+      </c>
+      <c r="G406" t="s">
+        <v>23</v>
+      </c>
+      <c r="H406" t="s">
+        <v>30</v>
+      </c>
+      <c r="I406" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I383" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1AFB7F-A572-8442-9B68-EA4C5C5ADC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390F1383-229A-014D-8BE8-2BAB8D47B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1600" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1600" windowWidth="25800" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:T364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
